--- a/misc/LDSC_GWAS_details.xlsx
+++ b/misc/LDSC_GWAS_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/skgtrhr_ucl_ac_uk/Documents/PhD/PhD Project/Aim1_LD Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\OneDrive - University College London\PhD\PhD Project\Aim1_LD Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69925CB3-09F9-44E1-87AC-B0DF2A5D0078}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{69925CB3-09F9-44E1-87AC-B0DF2A5D0078}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B03AD612-5907-433E-A06A-7CB1E33FCD16}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="199">
   <si>
     <t>http://www.cell.com/neuron/abstract/S0896-6273(18)30148-X</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Nalls, 2018</t>
   </si>
   <si>
-    <t>(Based on numbers provided by Mike Nalls)</t>
-  </si>
-  <si>
     <t>(Based on html provided by 23andMe)</t>
   </si>
   <si>
@@ -504,9 +501,6 @@
     <t>Original_name</t>
   </si>
   <si>
-    <t>33674 + 18618 proxy cases from UK Biobank)</t>
-  </si>
-  <si>
     <t>PD: Meta5 [only23andMe]</t>
   </si>
   <si>
@@ -523,13 +517,124 @@
   </si>
   <si>
     <t>2. Sweden+SCZ1: scz.swe.pgc1.2013-11b.zip This file contains SCZ1 + Swedish samples (5,001 Swedish cases and Swedish 6,243 controls). Citation: Ripke et al. Genome-wide association analysis identifies 13 new risk loci for schizophrenia. Nature Genetics 45, 1150-9 (2013).</t>
+  </si>
+  <si>
+    <t>Hg38 version of PD2018_AOO</t>
+  </si>
+  <si>
+    <t>Based on numbers from Mike Nalls</t>
+  </si>
+  <si>
+    <t>Nall, 2019</t>
+  </si>
+  <si>
+    <t>33674 (18618 proxy cases from UK Biobank)</t>
+  </si>
+  <si>
+    <t>Hg38. Downloaded from biorxiv link. See Supplementary Table 1 for cohort numbers -- exclude Nalls et al. 2014, 23andMe post-Chang et al. 2017 and Web-Based Study of Parkinson’s Disease (PDWBS)</t>
+  </si>
+  <si>
+    <t>Pre-release.</t>
+  </si>
+  <si>
+    <t>Iwaki, 2019</t>
+  </si>
+  <si>
+    <t>https://movementdisorders.onlinelibrary.wiley.com/doi/full/10.1002/mds.27845</t>
+  </si>
+  <si>
+    <t>PD: Progression, Baseline Cognitive Impairment</t>
+  </si>
+  <si>
+    <t>PD: Progression, Survival Cognitive Impairment</t>
+  </si>
+  <si>
+    <t>PD: Progression, Baseline Depression</t>
+  </si>
+  <si>
+    <t>PD: Progression, Survival Depression</t>
+  </si>
+  <si>
+    <t>PD: Progression, Survival Dyskinesia</t>
+  </si>
+  <si>
+    <t>PD: Progression, Baseline Dyskinesia</t>
+  </si>
+  <si>
+    <t>PD: Progression, Baseline Motor Fluctuations</t>
+  </si>
+  <si>
+    <t>PD: Progression, Survival Motor Fluctuations</t>
+  </si>
+  <si>
+    <t>Hg38. Study numbers are overall, not for the specific phenotype. For N of specific phenotype refer to column N in summary stats.</t>
+  </si>
+  <si>
+    <t>PD2019.base.dementia.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_Progression/PD2019.base.dementia.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2019.surv.dementia.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_Progression/PD2019.surv.dementia.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2019.base.depr.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_Progression/PD2019.base.depr.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_Progression/PD2019.surv.depr.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2019.surv.depr.hg38</t>
+  </si>
+  <si>
+    <t>PD2019.base.dyskinesia.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_Progression/PD2019.base.dyskinesia.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2019.surv.dyskinesia.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_Progression/PD2019.surv.dyskinesia.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2019.base.motorflux.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_Progression/PD2019.base.motorflux.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2019.surv.motorflux.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_Progression/PD2019.surv.motorflux.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2018.AOO.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2018_AOO/PD2018.AOO.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2019.meta5.ex23andMe.hg38</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_meta5_ex23andMe/PD2019.meta5.ex23andMe.hg38.sumstats.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +646,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,21 +676,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -890,816 +1011,1093 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1952E3-5C06-4A96-9634-E9A29A1BEBD9}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="75.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.5546875" customWidth="1"/>
     <col min="3" max="3" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>17008</v>
+      </c>
+      <c r="F2" s="4">
+        <v>37154</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4">
+        <v>71880</v>
+      </c>
+      <c r="F3" s="4">
+        <v>383378</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>19099</v>
+      </c>
+      <c r="F4" s="4">
+        <v>34194</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7125</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>12577</v>
+      </c>
+      <c r="F6" s="4">
+        <v>23475</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20806</v>
+      </c>
+      <c r="F7" s="4">
+        <v>59804</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7016</v>
+      </c>
+      <c r="F8" s="4">
+        <v>14745</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4">
+        <v>339224</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5">
+        <v>8696</v>
+      </c>
+      <c r="F10" s="5">
+        <v>26157</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4">
+        <v>15212</v>
+      </c>
+      <c r="F11" s="4">
+        <v>29677</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9671</v>
+      </c>
+      <c r="F12" s="4">
+        <v>29677</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3769</v>
+      </c>
+      <c r="F13" s="4">
+        <v>29677</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1980</v>
+      </c>
+      <c r="F14" s="4">
+        <v>8265</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1989</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4">
+        <v>269858</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4">
+        <v>9240</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9519</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="5">
+        <v>59851</v>
+      </c>
+      <c r="F19" s="5">
+        <v>113154</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4">
+        <v>14498</v>
+      </c>
+      <c r="F20" s="4">
+        <v>24091</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2688</v>
+      </c>
+      <c r="F21" s="4">
+        <v>7037</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4">
+        <v>20184</v>
+      </c>
+      <c r="F22" s="4">
+        <v>397324</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="4">
+        <v>13708</v>
+      </c>
+      <c r="F23" s="4">
+        <v>95282</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5333</v>
+      </c>
+      <c r="F24" s="4">
+        <v>12019</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="5">
+        <v>449037</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="5">
+        <v>449056</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
-        <v>17008</v>
-      </c>
-      <c r="F2">
-        <v>37154</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>71880</v>
-      </c>
-      <c r="F3">
-        <v>383378</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>19099</v>
-      </c>
-      <c r="F4">
-        <v>34194</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <v>6100</v>
-      </c>
-      <c r="F5">
-        <v>7125</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>12577</v>
-      </c>
-      <c r="F6">
-        <v>23475</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>20806</v>
-      </c>
-      <c r="F7">
-        <v>59804</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>7016</v>
-      </c>
-      <c r="F8">
-        <v>14745</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>339224</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8696</v>
-      </c>
-      <c r="F10" s="3">
-        <v>26157</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11">
-        <v>15212</v>
-      </c>
-      <c r="F11">
-        <v>29677</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12">
-        <v>9671</v>
-      </c>
-      <c r="F12">
-        <v>29677</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
-        <v>3769</v>
-      </c>
-      <c r="F13">
-        <v>29677</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14">
-        <v>1980</v>
-      </c>
-      <c r="F14">
-        <v>8265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15">
-        <v>1989</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17">
-        <v>269858</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18">
-        <v>9240</v>
-      </c>
-      <c r="F18">
-        <v>9519</v>
-      </c>
-      <c r="H18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="3">
-        <v>59851</v>
-      </c>
-      <c r="F19" s="3">
-        <v>113154</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20">
-        <v>14498</v>
-      </c>
-      <c r="F20">
-        <v>24091</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21">
-        <v>2688</v>
-      </c>
-      <c r="F21">
-        <v>7037</v>
-      </c>
-      <c r="H21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22">
-        <v>20184</v>
-      </c>
-      <c r="F22">
-        <v>397324</v>
-      </c>
-      <c r="H22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2448</v>
+      </c>
+      <c r="F27" s="5">
+        <v>571430</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1417791</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23">
-        <v>13708</v>
-      </c>
-      <c r="F23">
-        <v>95282</v>
-      </c>
-      <c r="H23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24">
-        <v>5333</v>
-      </c>
-      <c r="F24">
-        <v>12019</v>
-      </c>
-      <c r="H24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="4">
+        <v>17415</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4">
+        <v>17415</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="3">
-        <v>449037</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C26" t="s">
+      <c r="B39" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="4">
+        <v>6768</v>
+      </c>
+      <c r="F39" s="4">
+        <v>8806</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2448</v>
-      </c>
-      <c r="F26" s="3">
-        <v>571430</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="F40" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F27" s="3">
-        <v>1417791</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28">
-        <v>17996</v>
-      </c>
-      <c r="H28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29">
-        <v>6768</v>
-      </c>
-      <c r="F29">
-        <v>8806</v>
-      </c>
-      <c r="H29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="G40" s="5"/>
+      <c r="H40" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="B41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="5">
+        <v>9394</v>
+      </c>
+      <c r="F41" s="5">
+        <v>12462</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="5">
+        <v>14395</v>
+      </c>
+      <c r="F42" s="5">
+        <v>18705</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="3">
-        <v>9394</v>
-      </c>
-      <c r="F31" s="3">
-        <v>12462</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="4">
+        <v>33640</v>
+      </c>
+      <c r="F43" s="4">
+        <v>43456</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="3">
-        <v>14395</v>
-      </c>
-      <c r="F32" s="3">
-        <v>18705</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="B44" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="4">
+        <v>40675</v>
+      </c>
+      <c r="F44" s="4">
+        <v>64643</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33">
-        <v>33640</v>
-      </c>
-      <c r="F33">
-        <v>43456</v>
-      </c>
-      <c r="H33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B45" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E34">
-        <v>40675</v>
-      </c>
-      <c r="F34">
-        <v>64643</v>
-      </c>
-      <c r="H34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D45" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E45" s="5">
+        <v>224459</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="E35" s="3">
-        <v>224459</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1724,19 +2122,44 @@
     <hyperlink ref="H22" r:id="rId18" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
     <hyperlink ref="H23" r:id="rId19" xr:uid="{A871748F-5FA0-4642-9EC2-95FA348E8F17}"/>
     <hyperlink ref="H24" r:id="rId20" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
-    <hyperlink ref="H27" r:id="rId21" xr:uid="{F0B9EE8D-4A81-47F2-ACC1-3ABE93116486}"/>
-    <hyperlink ref="H28" r:id="rId22" xr:uid="{E632DA8A-4A7F-4751-81F2-B27B1FD089C1}"/>
-    <hyperlink ref="H29" r:id="rId23" xr:uid="{F3749A10-1F6B-4F66-B085-2DEA3CAB5B0E}"/>
-    <hyperlink ref="H30" r:id="rId24" xr:uid="{B34B03BB-EAE6-4A87-8990-17447E9C4D29}"/>
-    <hyperlink ref="H33" r:id="rId25" xr:uid="{43C3D143-A40E-445A-BF36-9D2AFF6D155C}"/>
-    <hyperlink ref="H35" r:id="rId26" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
+    <hyperlink ref="H28" r:id="rId21" xr:uid="{F0B9EE8D-4A81-47F2-ACC1-3ABE93116486}"/>
+    <hyperlink ref="H29" r:id="rId22" xr:uid="{E632DA8A-4A7F-4751-81F2-B27B1FD089C1}"/>
+    <hyperlink ref="H39" r:id="rId23" xr:uid="{F3749A10-1F6B-4F66-B085-2DEA3CAB5B0E}"/>
+    <hyperlink ref="H40" r:id="rId24" xr:uid="{B34B03BB-EAE6-4A87-8990-17447E9C4D29}"/>
+    <hyperlink ref="H43" r:id="rId25" xr:uid="{43C3D143-A40E-445A-BF36-9D2AFF6D155C}"/>
+    <hyperlink ref="H45" r:id="rId26" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
+    <hyperlink ref="H26" r:id="rId27" xr:uid="{6C5109D8-C3D7-43D3-B137-0D54AF6C79E4}"/>
+    <hyperlink ref="H30" r:id="rId28" xr:uid="{BB89BA30-3E33-40D8-AB26-BA33D744935E}"/>
+    <hyperlink ref="H31" r:id="rId29" xr:uid="{FF518EAB-DC18-42AE-9C67-8E83D627E4E7}"/>
+    <hyperlink ref="H32" r:id="rId30" xr:uid="{0A4CD878-4A6E-4D81-89AA-E215246BA774}"/>
+    <hyperlink ref="H33" r:id="rId31" xr:uid="{7A62A315-A9AB-4CAC-83DB-8F49B9AB6C19}"/>
+    <hyperlink ref="H34" r:id="rId32" xr:uid="{30C3204A-BCF9-4212-8A6E-2A4E3FED6437}"/>
+    <hyperlink ref="H35" r:id="rId33" xr:uid="{2F2D92F4-8659-4837-9BD4-FCB9E202D703}"/>
+    <hyperlink ref="H36" r:id="rId34" xr:uid="{0DEB6252-1D47-468A-BF89-16DB8311393A}"/>
+    <hyperlink ref="H37" r:id="rId35" xr:uid="{77E21E25-F9E3-4713-870F-4F7931E200E2}"/>
+    <hyperlink ref="H38" r:id="rId36" xr:uid="{8F561EC4-62F8-434D-964D-3353F629AFB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E9767D5BA6063479A4C886B0F37A834" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7df94d56b854e2bc391fe609c51130c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8482f88-69f1-4d9b-a87b-44246c8613e3" xmlns:ns4="777ca2a7-d433-453a-9f68-8d248f0b672b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f9bd102c2ed36076a1ee33778dae5d" ns3:_="" ns4:_="">
     <xsd:import namespace="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
@@ -1945,22 +2368,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="777ca2a7-d433-453a-9f68-8d248f0b672b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23476E9-018C-4B31-8204-6617531A6FD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1977,29 +2410,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="777ca2a7-d433-453a-9f68-8d248f0b672b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/misc/LDSC_GWAS_details.xlsx
+++ b/misc/LDSC_GWAS_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\OneDrive - University College London\PhD\PhD Project\Aim1_LD Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{69925CB3-09F9-44E1-87AC-B0DF2A5D0078}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{B03AD612-5907-433E-A06A-7CB1E33FCD16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C12D4-520F-499D-AD84-0AD7E814CFBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="203">
   <si>
     <t>http://www.cell.com/neuron/abstract/S0896-6273(18)30148-X</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Blauwendraat, 2018</t>
   </si>
   <si>
-    <t>https://www.biorxiv.org/content/early/2018/10/11/424010</t>
-  </si>
-  <si>
     <t>Rheumatoid arthritis</t>
   </si>
   <si>
@@ -628,6 +625,21 @@
   </si>
   <si>
     <t>/data/LDScore/GWAS/PD2019_meta5_ex23andMe/PD2019.meta5.ex23andMe.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/AD2019/AD2019.sumstats.gz</t>
+  </si>
+  <si>
+    <t>AD2019</t>
+  </si>
+  <si>
+    <t>Jansen,2018</t>
+  </si>
+  <si>
+    <t>From Nat. Gen. download link</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/30957308</t>
   </si>
 </sst>
 </file>
@@ -1011,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1952E3-5C06-4A96-9634-E9A29A1BEBD9}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1028,33 +1040,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -1078,10 +1090,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1095,226 +1107,228 @@
       <c r="F3" s="4">
         <v>383378</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="E4" s="4">
-        <v>19099</v>
+        <v>71880</v>
       </c>
       <c r="F4" s="4">
-        <v>34194</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>383378</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="4">
-        <v>6100</v>
+        <v>19099</v>
       </c>
       <c r="F5" s="4">
-        <v>7125</v>
+        <v>34194</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
-        <v>12577</v>
+        <v>6100</v>
       </c>
       <c r="F6" s="4">
-        <v>23475</v>
+        <v>7125</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4">
-        <v>20806</v>
+        <v>12577</v>
       </c>
       <c r="F7" s="4">
-        <v>59804</v>
+        <v>23475</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4">
-        <v>7016</v>
+        <v>20806</v>
       </c>
       <c r="F8" s="4">
-        <v>14745</v>
+        <v>59804</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9" s="4">
-        <v>339224</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>7016</v>
+      </c>
+      <c r="F9" s="4">
+        <v>14745</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5">
-        <v>8696</v>
-      </c>
-      <c r="F10" s="5">
-        <v>26157</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4">
+        <v>339224</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4">
-        <v>15212</v>
-      </c>
-      <c r="F11" s="4">
-        <v>29677</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>116</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8696</v>
+      </c>
+      <c r="F11" s="5">
+        <v>26157</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="4">
-        <v>9671</v>
+        <v>15212</v>
       </c>
       <c r="F12" s="4">
         <v>29677</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>30</v>
@@ -1322,25 +1336,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="4">
-        <v>3769</v>
+        <v>9671</v>
       </c>
       <c r="F13" s="4">
         <v>29677</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>30</v>
@@ -1348,382 +1362,386 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4">
-        <v>1980</v>
+        <v>3769</v>
       </c>
       <c r="F14" s="4">
-        <v>8265</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+        <v>29677</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="4">
-        <v>1989</v>
-      </c>
-      <c r="F15" s="4"/>
+        <v>1980</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8265</v>
+      </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>44</v>
+        <v>120</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1989</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="4">
-        <v>269858</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>47</v>
+        <v>122</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E18" s="4">
-        <v>9240</v>
-      </c>
-      <c r="F18" s="4">
-        <v>9519</v>
-      </c>
+        <v>269858</v>
+      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="5">
-        <v>59851</v>
-      </c>
-      <c r="F19" s="5">
-        <v>113154</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5" t="s">
-        <v>53</v>
+        <v>126</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9240</v>
+      </c>
+      <c r="F19" s="4">
+        <v>9519</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="4">
-        <v>14498</v>
-      </c>
-      <c r="F20" s="4">
-        <v>24091</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>55</v>
+        <v>128</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5">
+        <v>59851</v>
+      </c>
+      <c r="F20" s="5">
+        <v>113154</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E21" s="4">
-        <v>2688</v>
+        <v>14498</v>
       </c>
       <c r="F21" s="4">
-        <v>7037</v>
+        <v>24091</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="4">
-        <v>20184</v>
+        <v>2688</v>
       </c>
       <c r="F22" s="4">
-        <v>397324</v>
+        <v>7037</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4">
-        <v>13708</v>
+        <v>20184</v>
       </c>
       <c r="F23" s="4">
-        <v>95282</v>
+        <v>397324</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4">
-        <v>5333</v>
+        <v>13708</v>
       </c>
       <c r="F24" s="4">
-        <v>12019</v>
+        <v>95282</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="4">
+        <v>5333</v>
+      </c>
+      <c r="F25" s="4">
+        <v>12019</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="5">
-        <v>449037</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>198</v>
+        <v>138</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="5">
+        <v>449037</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="5">
+        <v>449056</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="5">
-        <v>449056</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2448</v>
-      </c>
-      <c r="F27" s="5">
-        <v>571430</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="5" t="s">
-        <v>69</v>
+      <c r="C28" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>157</v>
+      <c r="E28" s="5">
+        <v>2448</v>
       </c>
       <c r="F28" s="5">
+        <v>571430</v>
+      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="5">
         <v>1417791</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5" t="s">
+      <c r="G29" s="4"/>
+      <c r="H29" s="5" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="4">
-        <v>17415</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>71</v>
@@ -1735,431 +1753,437 @@
         <v>17415</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>179</v>
+        <v>195</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>170</v>
+        <v>71</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="E31" s="4">
-        <v>4093</v>
+        <v>17415</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E32" s="4">
         <v>4093</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E33" s="4">
         <v>4093</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E34" s="4">
         <v>4093</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E35" s="4">
         <v>4093</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>174</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E36" s="4">
         <v>4093</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E37" s="4">
         <v>4093</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="4">
         <v>4093</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>142</v>
+        <v>193</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>75</v>
+        <v>167</v>
       </c>
       <c r="E39" s="4">
-        <v>6768</v>
-      </c>
-      <c r="F39" s="4">
-        <v>8806</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>76</v>
+        <v>4093</v>
+      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>79</v>
+        <v>141</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="4">
+        <v>6768</v>
+      </c>
+      <c r="F40" s="4">
+        <v>8806</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E41" s="5">
-        <v>9394</v>
-      </c>
-      <c r="F41" s="5">
-        <v>12462</v>
+        <v>77</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="G41" s="5"/>
-      <c r="H41" s="4" t="s">
-        <v>160</v>
+      <c r="H41" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>82</v>
-      </c>
       <c r="E42" s="5">
-        <v>14395</v>
+        <v>9394</v>
       </c>
       <c r="F42" s="5">
-        <v>18705</v>
+        <v>12462</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="4">
-        <v>33640</v>
-      </c>
-      <c r="F43" s="4">
-        <v>43456</v>
-      </c>
-      <c r="G43" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="5">
+        <v>14395</v>
+      </c>
+      <c r="F43" s="5">
+        <v>18705</v>
+      </c>
+      <c r="G43" s="5"/>
       <c r="H43" s="4" t="s">
-        <v>85</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E44" s="4">
-        <v>40675</v>
+        <v>33640</v>
       </c>
       <c r="F44" s="4">
-        <v>64643</v>
+        <v>43456</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="4">
+        <v>40675</v>
+      </c>
+      <c r="F45" s="4">
+        <v>64643</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="C46" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="E46" s="5">
+        <v>224459</v>
+      </c>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="E45" s="5">
-        <v>224459</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{B491BD7C-F67A-40B3-A509-FF7CD2386D99}"/>
     <hyperlink ref="H3" r:id="rId2" xr:uid="{11434329-D682-4F16-9C7D-7C51669ECB82}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{69017833-EF4E-475D-8EE8-9E0D1953C0EA}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{A73AFF45-E745-40A2-B1E4-803F90734527}"/>
-    <hyperlink ref="H6" r:id="rId5" location="s1" display="https://www.nature.com/articles/ng.3622 - s1" xr:uid="{6CA197F1-5EDF-4FFA-9D41-0F18EEBB2B6C}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{DAC5F9F5-E387-4925-A9E2-C14F9221A4F7}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{BBB0C350-518D-4FDE-8D26-F9AC037A2E22}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{B2E5E27B-ACEE-4A28-AC32-B612CCAF03E1}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{57626893-EF50-4495-9576-887C340DD65A}"/>
-    <hyperlink ref="H11" r:id="rId10" location="Sec10" display="https://www.nature.com/articles/s41467-018-07524-z - Sec10" xr:uid="{CFE831C4-8AFB-4418-9288-621B405F29F5}"/>
-    <hyperlink ref="H12" r:id="rId11" location="Sec10" display="https://www.nature.com/articles/s41467-018-07524-z - Sec10" xr:uid="{436CC1DF-4B0D-47CC-A958-A7B03C8C26E0}"/>
-    <hyperlink ref="H13" r:id="rId12" location="Sec10" display="https://www.nature.com/articles/s41467-018-07524-z - Sec10" xr:uid="{2B96AD97-8F0B-4DAD-9749-03CB3787A8CB}"/>
-    <hyperlink ref="H15" r:id="rId13" xr:uid="{92873AE3-1779-4571-B6DB-A226058A12C9}"/>
-    <hyperlink ref="H16" r:id="rId14" xr:uid="{DE0BC030-109B-4040-97BA-9B088DFE47E4}"/>
-    <hyperlink ref="H17" r:id="rId15" xr:uid="{C41D5578-8609-468E-9436-D2A81F7E9F6D}"/>
-    <hyperlink ref="H19" r:id="rId16" xr:uid="{F3FE97D7-CFCE-41AB-BB44-0A0E4FC7ED7D}"/>
-    <hyperlink ref="H20" r:id="rId17" xr:uid="{D4A9E1FC-EA02-44AF-90CD-0F175DD87433}"/>
-    <hyperlink ref="H22" r:id="rId18" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
-    <hyperlink ref="H23" r:id="rId19" xr:uid="{A871748F-5FA0-4642-9EC2-95FA348E8F17}"/>
-    <hyperlink ref="H24" r:id="rId20" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
-    <hyperlink ref="H28" r:id="rId21" xr:uid="{F0B9EE8D-4A81-47F2-ACC1-3ABE93116486}"/>
-    <hyperlink ref="H29" r:id="rId22" xr:uid="{E632DA8A-4A7F-4751-81F2-B27B1FD089C1}"/>
-    <hyperlink ref="H39" r:id="rId23" xr:uid="{F3749A10-1F6B-4F66-B085-2DEA3CAB5B0E}"/>
-    <hyperlink ref="H40" r:id="rId24" xr:uid="{B34B03BB-EAE6-4A87-8990-17447E9C4D29}"/>
-    <hyperlink ref="H43" r:id="rId25" xr:uid="{43C3D143-A40E-445A-BF36-9D2AFF6D155C}"/>
-    <hyperlink ref="H45" r:id="rId26" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
-    <hyperlink ref="H26" r:id="rId27" xr:uid="{6C5109D8-C3D7-43D3-B137-0D54AF6C79E4}"/>
-    <hyperlink ref="H30" r:id="rId28" xr:uid="{BB89BA30-3E33-40D8-AB26-BA33D744935E}"/>
-    <hyperlink ref="H31" r:id="rId29" xr:uid="{FF518EAB-DC18-42AE-9C67-8E83D627E4E7}"/>
-    <hyperlink ref="H32" r:id="rId30" xr:uid="{0A4CD878-4A6E-4D81-89AA-E215246BA774}"/>
-    <hyperlink ref="H33" r:id="rId31" xr:uid="{7A62A315-A9AB-4CAC-83DB-8F49B9AB6C19}"/>
-    <hyperlink ref="H34" r:id="rId32" xr:uid="{30C3204A-BCF9-4212-8A6E-2A4E3FED6437}"/>
-    <hyperlink ref="H35" r:id="rId33" xr:uid="{2F2D92F4-8659-4837-9BD4-FCB9E202D703}"/>
-    <hyperlink ref="H36" r:id="rId34" xr:uid="{0DEB6252-1D47-468A-BF89-16DB8311393A}"/>
-    <hyperlink ref="H37" r:id="rId35" xr:uid="{77E21E25-F9E3-4713-870F-4F7931E200E2}"/>
-    <hyperlink ref="H38" r:id="rId36" xr:uid="{8F561EC4-62F8-434D-964D-3353F629AFB7}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{69017833-EF4E-475D-8EE8-9E0D1953C0EA}"/>
+    <hyperlink ref="H6" r:id="rId4" xr:uid="{A73AFF45-E745-40A2-B1E4-803F90734527}"/>
+    <hyperlink ref="H7" r:id="rId5" location="s1" display="https://www.nature.com/articles/ng.3622 - s1" xr:uid="{6CA197F1-5EDF-4FFA-9D41-0F18EEBB2B6C}"/>
+    <hyperlink ref="H8" r:id="rId6" xr:uid="{DAC5F9F5-E387-4925-A9E2-C14F9221A4F7}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{BBB0C350-518D-4FDE-8D26-F9AC037A2E22}"/>
+    <hyperlink ref="H10" r:id="rId8" xr:uid="{B2E5E27B-ACEE-4A28-AC32-B612CCAF03E1}"/>
+    <hyperlink ref="H11" r:id="rId9" xr:uid="{57626893-EF50-4495-9576-887C340DD65A}"/>
+    <hyperlink ref="H12" r:id="rId10" location="Sec10" display="https://www.nature.com/articles/s41467-018-07524-z - Sec10" xr:uid="{CFE831C4-8AFB-4418-9288-621B405F29F5}"/>
+    <hyperlink ref="H13" r:id="rId11" location="Sec10" display="https://www.nature.com/articles/s41467-018-07524-z - Sec10" xr:uid="{436CC1DF-4B0D-47CC-A958-A7B03C8C26E0}"/>
+    <hyperlink ref="H14" r:id="rId12" location="Sec10" display="https://www.nature.com/articles/s41467-018-07524-z - Sec10" xr:uid="{2B96AD97-8F0B-4DAD-9749-03CB3787A8CB}"/>
+    <hyperlink ref="H16" r:id="rId13" xr:uid="{92873AE3-1779-4571-B6DB-A226058A12C9}"/>
+    <hyperlink ref="H17" r:id="rId14" xr:uid="{DE0BC030-109B-4040-97BA-9B088DFE47E4}"/>
+    <hyperlink ref="H18" r:id="rId15" xr:uid="{C41D5578-8609-468E-9436-D2A81F7E9F6D}"/>
+    <hyperlink ref="H20" r:id="rId16" xr:uid="{F3FE97D7-CFCE-41AB-BB44-0A0E4FC7ED7D}"/>
+    <hyperlink ref="H21" r:id="rId17" xr:uid="{D4A9E1FC-EA02-44AF-90CD-0F175DD87433}"/>
+    <hyperlink ref="H23" r:id="rId18" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
+    <hyperlink ref="H24" r:id="rId19" xr:uid="{A871748F-5FA0-4642-9EC2-95FA348E8F17}"/>
+    <hyperlink ref="H25" r:id="rId20" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
+    <hyperlink ref="H29" r:id="rId21" xr:uid="{F0B9EE8D-4A81-47F2-ACC1-3ABE93116486}"/>
+    <hyperlink ref="H40" r:id="rId22" xr:uid="{F3749A10-1F6B-4F66-B085-2DEA3CAB5B0E}"/>
+    <hyperlink ref="H41" r:id="rId23" xr:uid="{B34B03BB-EAE6-4A87-8990-17447E9C4D29}"/>
+    <hyperlink ref="H44" r:id="rId24" xr:uid="{43C3D143-A40E-445A-BF36-9D2AFF6D155C}"/>
+    <hyperlink ref="H46" r:id="rId25" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
+    <hyperlink ref="H27" r:id="rId26" xr:uid="{6C5109D8-C3D7-43D3-B137-0D54AF6C79E4}"/>
+    <hyperlink ref="H32" r:id="rId27" xr:uid="{FF518EAB-DC18-42AE-9C67-8E83D627E4E7}"/>
+    <hyperlink ref="H33" r:id="rId28" xr:uid="{0A4CD878-4A6E-4D81-89AA-E215246BA774}"/>
+    <hyperlink ref="H34" r:id="rId29" xr:uid="{7A62A315-A9AB-4CAC-83DB-8F49B9AB6C19}"/>
+    <hyperlink ref="H35" r:id="rId30" xr:uid="{30C3204A-BCF9-4212-8A6E-2A4E3FED6437}"/>
+    <hyperlink ref="H36" r:id="rId31" xr:uid="{2F2D92F4-8659-4837-9BD4-FCB9E202D703}"/>
+    <hyperlink ref="H37" r:id="rId32" xr:uid="{0DEB6252-1D47-468A-BF89-16DB8311393A}"/>
+    <hyperlink ref="H38" r:id="rId33" xr:uid="{77E21E25-F9E3-4713-870F-4F7931E200E2}"/>
+    <hyperlink ref="H39" r:id="rId34" xr:uid="{8F561EC4-62F8-434D-964D-3353F629AFB7}"/>
+    <hyperlink ref="H4" r:id="rId35" xr:uid="{891F758A-E47D-49F6-9EAD-DAB8EC11C0DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E9767D5BA6063479A4C886B0F37A834" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7df94d56b854e2bc391fe609c51130c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8482f88-69f1-4d9b-a87b-44246c8613e3" xmlns:ns4="777ca2a7-d433-453a-9f68-8d248f0b672b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f9bd102c2ed36076a1ee33778dae5d" ns3:_="" ns4:_="">
     <xsd:import namespace="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
@@ -2368,32 +2392,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="777ca2a7-d433-453a-9f68-8d248f0b672b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23476E9-018C-4B31-8204-6617531A6FD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2410,4 +2424,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="777ca2a7-d433-453a-9f68-8d248f0b672b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/misc/LDSC_GWAS_details.xlsx
+++ b/misc/LDSC_GWAS_details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482C12D4-520F-499D-AD84-0AD7E814CFBA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D774B1-1CB6-4044-ABF3-0A2FB7279DC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="210">
   <si>
     <t>http://www.cell.com/neuron/abstract/S0896-6273(18)30148-X</t>
   </si>
@@ -243,9 +243,6 @@
     <t>PD: Meta5 [all]</t>
   </si>
   <si>
-    <t>https://www.biorxiv.org/content/early/2018/08/09/388165</t>
-  </si>
-  <si>
     <t>PD: Age of Onset</t>
   </si>
   <si>
@@ -640,6 +637,30 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/30957308</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/31701892</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_meta5_ex23andMe/PD2019.meta5.ex23andMe.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PD2019.meta5.ex23andMe</t>
+  </si>
+  <si>
+    <t>Hg19. Downloaded from biorxiv link. See Supplementary Table 1 for cohort numbers -- exclude Nalls et al. 2014, 23andMe post-Chang et al. 2017 and Web-Based Study of Parkinson’s Disease (PDWBS)</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/LBD2020/LBD2020.hg38.sumstats.gz</t>
+  </si>
+  <si>
+    <t>LBD2020.hg38</t>
+  </si>
+  <si>
+    <t>Lewy body disease</t>
+  </si>
+  <si>
+    <t>Hg38. Pre-release. Pre-dominantely DLB cases (per McKeith criteria), but also contained PDD samples (per Emre criteria)</t>
   </si>
 </sst>
 </file>
@@ -706,8 +727,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1023,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1952E3-5C06-4A96-9634-E9A29A1BEBD9}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1040,33 +1061,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
@@ -1090,10 +1111,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1108,7 +1129,7 @@
         <v>383378</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>7</v>
@@ -1116,16 +1137,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4" s="4">
         <v>71880</v>
@@ -1134,7 +1155,7 @@
         <v>383378</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>7</v>
@@ -1142,10 +1163,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -1166,7 +1187,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -1190,10 +1211,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
@@ -1214,10 +1235,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>11</v>
@@ -1238,10 +1259,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -1262,10 +1283,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -1284,10 +1305,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>23</v>
@@ -1310,10 +1331,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>27</v>
@@ -1336,10 +1357,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>31</v>
@@ -1362,10 +1383,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>33</v>
@@ -1388,10 +1409,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>35</v>
@@ -1410,10 +1431,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>37</v>
@@ -1432,10 +1453,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>40</v>
@@ -1456,10 +1477,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>45</v>
@@ -1478,666 +1499,714 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4">
-        <v>9240</v>
+        <v>2591</v>
       </c>
       <c r="F19" s="4">
-        <v>9519</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>4060</v>
+      </c>
+      <c r="G19" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="5">
-        <v>59851</v>
-      </c>
-      <c r="F20" s="5">
-        <v>113154</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>53</v>
+        <v>125</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4">
+        <v>9240</v>
+      </c>
+      <c r="F20" s="4">
+        <v>9519</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="4">
-        <v>14498</v>
-      </c>
-      <c r="F21" s="4">
-        <v>24091</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>55</v>
+        <v>127</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5">
+        <v>59851</v>
+      </c>
+      <c r="F21" s="5">
+        <v>113154</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>131</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E22" s="4">
-        <v>2688</v>
+        <v>14498</v>
       </c>
       <c r="F22" s="4">
-        <v>7037</v>
+        <v>24091</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4">
-        <v>20184</v>
+        <v>2688</v>
       </c>
       <c r="F23" s="4">
-        <v>397324</v>
+        <v>7037</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4">
-        <v>13708</v>
+        <v>20184</v>
       </c>
       <c r="F24" s="4">
-        <v>95282</v>
+        <v>397324</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4">
-        <v>5333</v>
+        <v>13708</v>
       </c>
       <c r="F25" s="4">
-        <v>12019</v>
+        <v>95282</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="4">
+        <v>5333</v>
+      </c>
+      <c r="F26" s="4">
+        <v>12019</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="5">
-        <v>449037</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="5">
+        <v>449037</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="5">
+        <v>449056</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="5">
+        <v>449056</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F27" s="5">
-        <v>449056</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="H29" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2448</v>
+      </c>
+      <c r="F30" s="5">
+        <v>571430</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="5">
-        <v>2448</v>
-      </c>
-      <c r="F28" s="5">
-        <v>571430</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="F31" s="5">
         <v>1417791</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="4">
-        <v>17415</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="4">
-        <v>17415</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H31" s="4" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="5" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>178</v>
+        <v>135</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E32" s="4">
-        <v>4093</v>
+        <v>17415</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>168</v>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>180</v>
+        <v>194</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>167</v>
+        <v>71</v>
       </c>
       <c r="E33" s="4">
-        <v>4093</v>
+        <v>17415</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E34" s="4">
         <v>4093</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>185</v>
+        <v>180</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E35" s="4">
         <v>4093</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E36" s="4">
         <v>4093</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E37" s="4">
         <v>4093</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38" s="4">
         <v>4093</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E39" s="4">
         <v>4093</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>141</v>
+        <v>190</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="E40" s="4">
-        <v>6768</v>
-      </c>
-      <c r="F40" s="4">
-        <v>8806</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>75</v>
+        <v>4093</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
-        <v>78</v>
+        <v>192</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4093</v>
+      </c>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" s="5">
-        <v>9394</v>
-      </c>
-      <c r="F42" s="5">
-        <v>12462</v>
-      </c>
-      <c r="G42" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="4">
+        <v>6768</v>
+      </c>
+      <c r="F42" s="4">
+        <v>8806</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E43" s="5">
-        <v>14395</v>
-      </c>
-      <c r="F43" s="5">
-        <v>18705</v>
+        <v>76</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="G43" s="5"/>
-      <c r="H43" s="4" t="s">
-        <v>160</v>
+      <c r="H43" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="4">
-        <v>33640</v>
-      </c>
-      <c r="F44" s="4">
-        <v>43456</v>
-      </c>
-      <c r="G44" s="4"/>
+      <c r="E44" s="5">
+        <v>9394</v>
+      </c>
+      <c r="F44" s="5">
+        <v>12462</v>
+      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="4" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="4">
-        <v>40675</v>
-      </c>
-      <c r="F45" s="4">
-        <v>64643</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="5">
+        <v>14395</v>
+      </c>
+      <c r="F45" s="5">
+        <v>18705</v>
+      </c>
+      <c r="G45" s="5"/>
       <c r="H45" s="4" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="4">
+        <v>33640</v>
+      </c>
+      <c r="F46" s="4">
+        <v>43456</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="4">
+        <v>40675</v>
+      </c>
+      <c r="F47" s="4">
+        <v>64643</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E48" s="5">
+        <v>224459</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E46" s="5">
-        <v>224459</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2157,33 +2226,46 @@
     <hyperlink ref="H16" r:id="rId13" xr:uid="{92873AE3-1779-4571-B6DB-A226058A12C9}"/>
     <hyperlink ref="H17" r:id="rId14" xr:uid="{DE0BC030-109B-4040-97BA-9B088DFE47E4}"/>
     <hyperlink ref="H18" r:id="rId15" xr:uid="{C41D5578-8609-468E-9436-D2A81F7E9F6D}"/>
-    <hyperlink ref="H20" r:id="rId16" xr:uid="{F3FE97D7-CFCE-41AB-BB44-0A0E4FC7ED7D}"/>
-    <hyperlink ref="H21" r:id="rId17" xr:uid="{D4A9E1FC-EA02-44AF-90CD-0F175DD87433}"/>
-    <hyperlink ref="H23" r:id="rId18" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
-    <hyperlink ref="H24" r:id="rId19" xr:uid="{A871748F-5FA0-4642-9EC2-95FA348E8F17}"/>
-    <hyperlink ref="H25" r:id="rId20" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
-    <hyperlink ref="H29" r:id="rId21" xr:uid="{F0B9EE8D-4A81-47F2-ACC1-3ABE93116486}"/>
-    <hyperlink ref="H40" r:id="rId22" xr:uid="{F3749A10-1F6B-4F66-B085-2DEA3CAB5B0E}"/>
-    <hyperlink ref="H41" r:id="rId23" xr:uid="{B34B03BB-EAE6-4A87-8990-17447E9C4D29}"/>
-    <hyperlink ref="H44" r:id="rId24" xr:uid="{43C3D143-A40E-445A-BF36-9D2AFF6D155C}"/>
-    <hyperlink ref="H46" r:id="rId25" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
-    <hyperlink ref="H27" r:id="rId26" xr:uid="{6C5109D8-C3D7-43D3-B137-0D54AF6C79E4}"/>
-    <hyperlink ref="H32" r:id="rId27" xr:uid="{FF518EAB-DC18-42AE-9C67-8E83D627E4E7}"/>
-    <hyperlink ref="H33" r:id="rId28" xr:uid="{0A4CD878-4A6E-4D81-89AA-E215246BA774}"/>
-    <hyperlink ref="H34" r:id="rId29" xr:uid="{7A62A315-A9AB-4CAC-83DB-8F49B9AB6C19}"/>
-    <hyperlink ref="H35" r:id="rId30" xr:uid="{30C3204A-BCF9-4212-8A6E-2A4E3FED6437}"/>
-    <hyperlink ref="H36" r:id="rId31" xr:uid="{2F2D92F4-8659-4837-9BD4-FCB9E202D703}"/>
-    <hyperlink ref="H37" r:id="rId32" xr:uid="{0DEB6252-1D47-468A-BF89-16DB8311393A}"/>
-    <hyperlink ref="H38" r:id="rId33" xr:uid="{77E21E25-F9E3-4713-870F-4F7931E200E2}"/>
-    <hyperlink ref="H39" r:id="rId34" xr:uid="{8F561EC4-62F8-434D-964D-3353F629AFB7}"/>
-    <hyperlink ref="H4" r:id="rId35" xr:uid="{891F758A-E47D-49F6-9EAD-DAB8EC11C0DE}"/>
+    <hyperlink ref="H21" r:id="rId16" xr:uid="{F3FE97D7-CFCE-41AB-BB44-0A0E4FC7ED7D}"/>
+    <hyperlink ref="H22" r:id="rId17" xr:uid="{D4A9E1FC-EA02-44AF-90CD-0F175DD87433}"/>
+    <hyperlink ref="H24" r:id="rId18" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
+    <hyperlink ref="H25" r:id="rId19" xr:uid="{A871748F-5FA0-4642-9EC2-95FA348E8F17}"/>
+    <hyperlink ref="H26" r:id="rId20" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
+    <hyperlink ref="H42" r:id="rId21" xr:uid="{F3749A10-1F6B-4F66-B085-2DEA3CAB5B0E}"/>
+    <hyperlink ref="H43" r:id="rId22" xr:uid="{B34B03BB-EAE6-4A87-8990-17447E9C4D29}"/>
+    <hyperlink ref="H46" r:id="rId23" xr:uid="{43C3D143-A40E-445A-BF36-9D2AFF6D155C}"/>
+    <hyperlink ref="H48" r:id="rId24" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
+    <hyperlink ref="H34" r:id="rId25" xr:uid="{FF518EAB-DC18-42AE-9C67-8E83D627E4E7}"/>
+    <hyperlink ref="H35" r:id="rId26" xr:uid="{0A4CD878-4A6E-4D81-89AA-E215246BA774}"/>
+    <hyperlink ref="H36" r:id="rId27" xr:uid="{7A62A315-A9AB-4CAC-83DB-8F49B9AB6C19}"/>
+    <hyperlink ref="H37" r:id="rId28" xr:uid="{30C3204A-BCF9-4212-8A6E-2A4E3FED6437}"/>
+    <hyperlink ref="H38" r:id="rId29" xr:uid="{2F2D92F4-8659-4837-9BD4-FCB9E202D703}"/>
+    <hyperlink ref="H39" r:id="rId30" xr:uid="{0DEB6252-1D47-468A-BF89-16DB8311393A}"/>
+    <hyperlink ref="H40" r:id="rId31" xr:uid="{77E21E25-F9E3-4713-870F-4F7931E200E2}"/>
+    <hyperlink ref="H41" r:id="rId32" xr:uid="{8F561EC4-62F8-434D-964D-3353F629AFB7}"/>
+    <hyperlink ref="H4" r:id="rId33" xr:uid="{891F758A-E47D-49F6-9EAD-DAB8EC11C0DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E9767D5BA6063479A4C886B0F37A834" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7df94d56b854e2bc391fe609c51130c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8482f88-69f1-4d9b-a87b-44246c8613e3" xmlns:ns4="777ca2a7-d433-453a-9f68-8d248f0b672b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f9bd102c2ed36076a1ee33778dae5d" ns3:_="" ns4:_="">
     <xsd:import namespace="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
@@ -2392,22 +2474,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="777ca2a7-d433-453a-9f68-8d248f0b672b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23476E9-018C-4B31-8204-6617531A6FD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2424,29 +2516,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="777ca2a7-d433-453a-9f68-8d248f0b672b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/misc/LDSC_GWAS_details.xlsx
+++ b/misc/LDSC_GWAS_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\DOCUME~1\MobaXterm\slash\RemoteFiles\198722_3_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42D774B1-1CB6-4044-ABF3-0A2FB7279DC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923570F-F88D-4FAF-BA30-A909B5C6E72E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="212">
   <si>
     <t>http://www.cell.com/neuron/abstract/S0896-6273(18)30148-X</t>
   </si>
@@ -661,6 +661,12 @@
   </si>
   <si>
     <t>Hg38. Pre-release. Pre-dominantely DLB cases (per McKeith criteria), but also contained PDD samples (per Emre criteria)</t>
+  </si>
+  <si>
+    <t>https://www.biorxiv.org/content/10.1101/2020.07.06.185066v1</t>
+  </si>
+  <si>
+    <t>Chia, 2020</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1053,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,17 +1513,21 @@
       <c r="C19" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>211</v>
+      </c>
       <c r="E19" s="4">
         <v>2591</v>
       </c>
       <c r="F19" s="4">
-        <v>4060</v>
+        <v>4027</v>
       </c>
       <c r="G19" t="s">
         <v>209</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -2251,21 +2261,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E9767D5BA6063479A4C886B0F37A834" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7df94d56b854e2bc391fe609c51130c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8482f88-69f1-4d9b-a87b-44246c8613e3" xmlns:ns4="777ca2a7-d433-453a-9f68-8d248f0b672b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f9bd102c2ed36076a1ee33778dae5d" ns3:_="" ns4:_="">
     <xsd:import namespace="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
@@ -2474,32 +2469,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="777ca2a7-d433-453a-9f68-8d248f0b672b"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23476E9-018C-4B31-8204-6617531A6FD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2516,4 +2501,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="777ca2a7-d433-453a-9f68-8d248f0b672b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/misc/LDSC_GWAS_details.xlsx
+++ b/misc/LDSC_GWAS_details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\DOCUME~1\MobaXterm\slash\RemoteFiles\68418_4_19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28063910-D287-41DA-BB17-F13199A4BBB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CB3827-FFB4-44A9-BEA2-68BFE3BE49D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1065" windowWidth="29040" windowHeight="15840" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="351">
   <si>
     <t>Disease</t>
   </si>
@@ -891,12 +891,6 @@
     <t>https://drive.google.com/file/d/1FZ9UL99LAqyWnyNBxxlx6qOUlfAnublN/view</t>
   </si>
   <si>
-    <t>Downloaded from biorxiv link. See Supplementary Table 1 for cohort numbers -- exclude Nalls et al. 2014, 23andMe post-Chang et al. 2017 and Web-Based Study of Parkinson’s Disease (PDWBS)</t>
-  </si>
-  <si>
-    <t>Liftover of original to GRCh38.</t>
-  </si>
-  <si>
     <t>Liftover of original to GRCh38. Study numbers are overall, not for the specific phenotype. For N of specific phenotype refer to column N in summary stats.</t>
   </si>
   <si>
@@ -948,12 +942,6 @@
     <t>/data/LDScore/GWAS/RA2014/RA_GWASmeta_European_v2.txt.gz</t>
   </si>
   <si>
-    <t>/data/LDScore/RBD2020/RBD2020.txt</t>
-  </si>
-  <si>
-    <t>From Lynne Krohn.</t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/25056061/</t>
   </si>
   <si>
@@ -1021,6 +1009,84 @@
   </si>
   <si>
     <t>epipgx_dre_res</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/BMI2018/Bmi.giant-ukbb.meta-analysis.combined.23May2018.HapMap2_only.txt.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/BMI2018/Bmi.giant-ukbb.meta-analysis.females.23May2018.HapMap2_only.txt.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/BMI2018/Bmi.giant-ukbb.meta-analysis.males.23May2018.HapMap2_only.txt.gz</t>
+  </si>
+  <si>
+    <t>BMI2018</t>
+  </si>
+  <si>
+    <t>Pulit, 2019</t>
+  </si>
+  <si>
+    <t>Female only.</t>
+  </si>
+  <si>
+    <t>Male only.</t>
+  </si>
+  <si>
+    <t>Combined. EUR only.</t>
+  </si>
+  <si>
+    <t>08_02_2021</t>
+  </si>
+  <si>
+    <t>https://portals.broadinstitute.org/collaboration/giant/index.php/GIANT_consortium_data_files#</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30239722/</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/LBD2020/LBD2020.sumstats.gz</t>
+  </si>
+  <si>
+    <t>LBD2020</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/LBD2020/LBD2020_hg19_rsids.lava.gz</t>
+  </si>
+  <si>
+    <t>Liftover of original file (LBDpath.LBDclin.ALLcontrols4K.unrelated.glm.noSpanningDels.snvCOVS.hwe1e-6.maf001cases.excludeCentromereFlank10kb.exclVDJ.GnomadTopmedOutliersRemoved.withValidation.FINAL.TIDY.txt.gz) to GRCh37.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/data/LDScore/GWAS/PD2017_meta5/PDMeta5_SNPlocMappedtoRS.txt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/data/LDScore/GWAS/PD2018_AOO/PD2018_AOO_hg38.txt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">/data/LDScore/GWAS/PD2018_AOO/sorted_AAO_april3_18_final_discovery_mappedtoRS.txt </t>
+  </si>
+  <si>
+    <t>Liftover of original (sorted_AAO_april3_18_final_discovery.txt) to GRCh38.</t>
+  </si>
+  <si>
+    <t>Liftover of original file (nallsEtAl2019_excluding23andMe_allVariants.tab.gz) from hg19 to hg38.</t>
+  </si>
+  <si>
+    <t>Downloaded from biorxiv link. See Supplementary Table 1 for cohort numbers -- exclude Nalls et al. 2014, 23andMe post-Chang et al. 2017 and Web-Based Study of Parkinson’s Disease (PDWBS). Original file (nallsEtAl2019_excluding23andMe_allVariants.tab.gz) did not have rs ids (which are needed for LDSC), so these were added.</t>
+  </si>
+  <si>
+    <t>/data/LDScore/RBD2020/RBD2020.sumstats.gz</t>
+  </si>
+  <si>
+    <t>From Lynne Krohn. Original file (RBD_meta-results_forRR_maf-01.zip) did not have rs ids so these were added.</t>
+  </si>
+  <si>
+    <t>/data/LDScore/RBD2020/RBD2020_rsids.lava.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_meta5_ex23andMe/PD2019_ex23andMe_hg19.txt.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PD2019_meta5_ex23andMe/PD2019_ex23andMe_hg38.txt.gz</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1108,6 +1174,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1423,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1952E3-5C06-4A96-9634-E9A29A1BEBD9}">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1844,840 +1911,832 @@
     </row>
     <row r="12" spans="1:13" ht="28.8">
       <c r="A12" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G12" s="4">
+        <v>806834</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L12">
+        <v>30239722</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="28.8">
+      <c r="A13" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" s="4">
+        <v>434794</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L13">
+        <v>30239722</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8">
+      <c r="A14" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G14" s="4">
+        <v>374756</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L14">
+        <v>30239722</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="28.8">
+      <c r="A15" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
-        <v>8696</v>
-      </c>
-      <c r="H13" s="5">
-        <v>26157</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13">
-        <v>25087078</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
-        <v>15212</v>
-      </c>
-      <c r="H14" s="4">
-        <v>29677</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L14">
-        <v>30531953</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>9671</v>
-      </c>
-      <c r="H15" s="4">
-        <v>29677</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L15">
-        <v>30531953</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>8696</v>
+      </c>
+      <c r="H16" s="5">
+        <v>26157</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16">
+        <v>25087078</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
-        <v>3769</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>15212</v>
+      </c>
+      <c r="H17" s="4">
         <v>29677</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="12" t="s">
+      <c r="I17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>30531953</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M17" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <v>2423</v>
-      </c>
-      <c r="H17" s="5">
-        <v>10645</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="M17" s="4"/>
-    </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="B18" s="3" t="s">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>2423</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1626</v>
+        <v>87</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>9671</v>
+      </c>
+      <c r="H18" s="4">
+        <v>29677</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>242</v>
+        <v>21</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="M18" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L18">
+        <v>30531953</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
-        <v>1980</v>
+        <v>3769</v>
       </c>
       <c r="H19" s="4">
-        <v>8265</v>
+        <v>29677</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>208</v>
+        <v>23</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="L19">
+        <v>30531953</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>220</v>
-      </c>
+      <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
-        <v>1989</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20">
-        <v>28642124</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>27</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <v>2423</v>
+      </c>
+      <c r="H20" s="5">
+        <v>10645</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>97</v>
+        <v>324</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
-        <v>31</v>
+      <c r="G21" s="5">
+        <v>2423</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1626</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21">
-        <v>30124842</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>34</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
-        <v>269858</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+        <v>1980</v>
+      </c>
+      <c r="H22" s="4">
+        <v>8265</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="K22" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22">
-        <v>29942086</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="57.6">
+        <v>209</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>172</v>
+        <v>95</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F23" s="4"/>
       <c r="G23" s="4">
-        <v>2591</v>
-      </c>
-      <c r="H23" s="4">
-        <v>4027</v>
-      </c>
-      <c r="I23" t="s">
-        <v>248</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="K23" t="s">
-        <v>135</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>175</v>
+        <v>1989</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23">
+        <v>28642124</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
-        <v>9240</v>
-      </c>
-      <c r="H24" s="4">
-        <v>9519</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>251</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" s="5"/>
       <c r="L24">
-        <v>22472876</v>
-      </c>
-      <c r="M24" t="s">
-        <v>252</v>
+        <v>30124842</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>256</v>
+        <v>98</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>59851</v>
-      </c>
-      <c r="H25" s="5">
-        <v>113154</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>254</v>
+        <v>99</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>269858</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="L25">
-        <v>29700475</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>29942086</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="57.6">
       <c r="A26" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>271</v>
+      </c>
       <c r="G26" s="4">
-        <v>14498</v>
+        <v>2591</v>
       </c>
       <c r="H26" s="4">
-        <v>24091</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26">
-        <v>24076602</v>
+        <v>4027</v>
+      </c>
+      <c r="I26" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" t="s">
+        <v>135</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>259</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>260</v>
+        <v>338</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
+        <v>336</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>106</v>
+        <v>337</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="G27" s="4">
-        <v>2688</v>
+        <v>2591</v>
       </c>
       <c r="H27" s="4">
-        <v>7037</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L27">
-        <v>28761083</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>261</v>
-      </c>
+        <v>4027</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="M27" s="4"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
-        <v>20184</v>
+        <v>9240</v>
       </c>
       <c r="H28" s="4">
-        <v>397324</v>
+        <v>9519</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="M28" s="4" t="s">
-        <v>44</v>
+      <c r="J28" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L28">
+        <v>22472876</v>
+      </c>
+      <c r="M28" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G29" s="4">
-        <v>5333</v>
-      </c>
-      <c r="H29" s="4">
-        <v>12019</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>264</v>
+        <v>103</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <v>59851</v>
+      </c>
+      <c r="H29" s="5">
+        <v>113154</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="K29" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="L29">
-        <v>21292315</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>47</v>
+        <v>29700475</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>270</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4">
-        <v>13708</v>
+        <v>14498</v>
       </c>
       <c r="H30" s="4">
-        <v>95282</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>266</v>
-      </c>
+        <v>24091</v>
+      </c>
+      <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30">
-        <v>25064009</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>267</v>
+        <v>24076602</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" t="s">
-        <v>323</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G31">
-        <v>25987</v>
-      </c>
-      <c r="H31">
-        <v>403177</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>209</v>
+        <v>105</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4">
+        <v>2688</v>
+      </c>
+      <c r="H31" s="4">
+        <v>7037</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="L31">
-        <v>31701892</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>168</v>
+        <v>28761083</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>162</v>
+        <v>340</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>271</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="4">
-        <v>17415</v>
-      </c>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="L32">
-        <v>30957308</v>
-      </c>
+        <v>20184</v>
+      </c>
+      <c r="H32" s="4">
+        <v>397324</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
       <c r="M32" s="4" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>270</v>
       </c>
       <c r="G33" s="4">
-        <v>17415</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>5333</v>
+      </c>
+      <c r="H33" s="4">
+        <v>12019</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" s="4"/>
       <c r="L33">
-        <v>30957308</v>
+        <v>21292315</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="28.8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>49</v>
+        <v>110</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="5">
-        <v>449037</v>
-      </c>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="28.8">
+      <c r="G34" s="4">
+        <v>13708</v>
+      </c>
+      <c r="H34" s="4">
+        <v>95282</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34">
+        <v>25064009</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C35" t="s">
+        <v>319</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E35" s="5" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H35" s="5">
-        <v>449037</v>
+      <c r="G35">
+        <v>25987</v>
+      </c>
+      <c r="H35">
+        <v>403177</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="J35" s="4"/>
+        <v>321</v>
+      </c>
       <c r="K35" s="5" t="s">
         <v>209</v>
       </c>
@@ -2688,92 +2747,94 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="28.8">
+    <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>169</v>
+        <v>341</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>133</v>
+        <v>161</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="5">
-        <v>449056</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="13" t="s">
-        <v>284</v>
+        <v>271</v>
+      </c>
+      <c r="G36" s="4">
+        <v>17415</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="L36">
-        <v>31701892</v>
-      </c>
-      <c r="M36" s="14" t="s">
-        <v>168</v>
+        <v>30957308</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="28.8">
       <c r="A37" s="3" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" s="4">
+        <v>17415</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37">
+        <v>30957308</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="28.8">
+      <c r="A38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="5">
-        <v>449056</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="L37">
-        <v>31701892</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>49</v>
@@ -2781,186 +2842,185 @@
       <c r="F38" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G38" s="5">
-        <v>2448</v>
+      <c r="G38" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="H38" s="5">
-        <v>571430</v>
-      </c>
-      <c r="I38" s="6" t="s">
+        <v>449037</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="28.8">
+      <c r="A39" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J38" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="K38" s="6"/>
-      <c r="L38">
+      <c r="B39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="5">
+        <v>449037</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L39">
         <v>31701892</v>
       </c>
-      <c r="M38" s="5" t="s">
+      <c r="M39" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G39" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L39">
-        <v>31505070</v>
-      </c>
-      <c r="M39" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" ht="28.8">
       <c r="A40" s="3" t="s">
-        <v>276</v>
+        <v>349</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>136</v>
+        <v>169</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G40" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" s="5">
+        <v>449056</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J40" s="6"/>
+      <c r="K40" s="13" t="s">
+        <v>284</v>
       </c>
       <c r="L40">
-        <v>31505070</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>31701892</v>
+      </c>
+      <c r="M40" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="28.8">
       <c r="A41" s="3" t="s">
-        <v>278</v>
+        <v>350</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>136</v>
+        <v>164</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G41" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4" t="s">
-        <v>273</v>
+      <c r="G41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="5">
+        <v>449056</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="L41">
-        <v>31505070</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>274</v>
+        <v>31701892</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>157</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4" t="s">
-        <v>273</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G42" s="5">
+        <v>2448</v>
+      </c>
+      <c r="H42" s="5">
+        <v>571430</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" s="6"/>
       <c r="L42">
-        <v>31505070</v>
-      </c>
-      <c r="M42" s="7" t="s">
-        <v>274</v>
+        <v>31701892</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>136</v>
@@ -2973,7 +3033,7 @@
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
@@ -2982,22 +3042,22 @@
       <c r="L43">
         <v>31505070</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>136</v>
@@ -3010,7 +3070,7 @@
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
@@ -3025,16 +3085,16 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>136</v>
@@ -3047,7 +3107,7 @@
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
@@ -3062,16 +3122,16 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>136</v>
@@ -3084,7 +3144,7 @@
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
@@ -3099,359 +3159,509 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>288</v>
+        <v>148</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>289</v>
+        <v>138</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G47" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="G47" s="4">
+        <v>4093</v>
+      </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="L47">
-        <v>30066433</v>
-      </c>
-      <c r="M47" s="9" t="s">
-        <v>296</v>
+        <v>31505070</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="15"/>
+        <v>281</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="D48" s="4" t="s">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>299</v>
+        <v>136</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G48" s="15">
-        <v>1002</v>
+        <v>271</v>
+      </c>
+      <c r="G48" s="4">
+        <v>4093</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>295</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>209</v>
+        <v>273</v>
       </c>
       <c r="L48">
-        <v>33341150</v>
+        <v>31505070</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>178</v>
+        <v>282</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G49" s="4">
-        <v>2843</v>
-      </c>
-      <c r="H49" s="4">
-        <v>139363</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="M49" s="5"/>
+        <v>4093</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L49">
+        <v>31505070</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="B50" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>116</v>
+        <v>160</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G50" s="4">
-        <v>6768</v>
-      </c>
-      <c r="H50" s="4">
-        <v>8806</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>201</v>
+        <v>4093</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+      <c r="K50" s="4" t="s">
+        <v>273</v>
+      </c>
       <c r="L50">
-        <v>20453842</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>300</v>
+        <v>31505070</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="3" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>55</v>
+        <v>288</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I51" s="5"/>
-      <c r="J51" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="K51" s="5"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="L51">
-        <v>24390342</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>302</v>
+        <v>30066433</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>57</v>
+        <v>291</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G52" s="5">
-        <v>9394</v>
-      </c>
-      <c r="H52" s="5">
-        <v>12462</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="J52" s="5"/>
-      <c r="K52" s="8" t="s">
-        <v>251</v>
+      <c r="G52" s="15">
+        <v>1002</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="L52">
-        <v>21926974</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>308</v>
+        <v>33341150</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>121</v>
+        <v>346</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G53" s="5">
-        <v>14395</v>
-      </c>
-      <c r="H53" s="5">
-        <v>18705</v>
+      <c r="G53" s="4">
+        <v>2843</v>
+      </c>
+      <c r="H53" s="4">
+        <v>139363</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="J53" s="5"/>
-      <c r="K53" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L53">
-        <v>23974872</v>
-      </c>
-      <c r="M53" s="9" t="s">
-        <v>315</v>
-      </c>
+      <c r="K53" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="M53" s="5"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="3" t="s">
-        <v>312</v>
-      </c>
+      <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>270</v>
       </c>
       <c r="G54" s="4">
-        <v>40675</v>
+        <v>6768</v>
       </c>
       <c r="H54" s="4">
-        <v>64643</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>8806</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>201</v>
+      </c>
       <c r="J54" s="4"/>
-      <c r="K54" s="8" t="s">
-        <v>251</v>
-      </c>
+      <c r="K54" s="4"/>
       <c r="L54">
-        <v>29483656</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>313</v>
+        <v>20453842</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
-        <v>125</v>
+        <v>301</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G55" s="4">
-        <v>33640</v>
-      </c>
-      <c r="H55" s="4">
-        <v>43456</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="8" t="s">
-        <v>251</v>
-      </c>
+      <c r="G55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="K55" s="5"/>
       <c r="L55">
-        <v>25056061</v>
-      </c>
-      <c r="M55" s="9" t="s">
+        <v>24390342</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>270</v>
       </c>
       <c r="G56" s="5">
+        <v>9394</v>
+      </c>
+      <c r="H56" s="5">
+        <v>12462</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L56">
+        <v>21926974</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G57" s="5">
+        <v>14395</v>
+      </c>
+      <c r="H57" s="5">
+        <v>18705</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L57">
+        <v>23974872</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G58" s="4">
+        <v>40675</v>
+      </c>
+      <c r="H58" s="4">
+        <v>64643</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L58">
+        <v>29483656</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="4">
+        <v>33640</v>
+      </c>
+      <c r="H59" s="4">
+        <v>43456</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J59" s="4"/>
+      <c r="K59" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="L59">
+        <v>25056061</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G60" s="5">
         <v>224459</v>
       </c>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5" t="s">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="M56" s="5" t="s">
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="M60" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3463,18 +3673,18 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="M9" r:id="rId1" xr:uid="{BBB0C350-518D-4FDE-8D26-F9AC037A2E22}"/>
-    <hyperlink ref="M28" r:id="rId2" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
-    <hyperlink ref="M56" r:id="rId3" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
+    <hyperlink ref="M32" r:id="rId2" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
+    <hyperlink ref="M60" r:id="rId3" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
     <hyperlink ref="M10" r:id="rId4" xr:uid="{3D6F428E-43E3-4182-BD13-393C33C31665}"/>
-    <hyperlink ref="M13" r:id="rId5" display="http://www.thelancet.com/journals/laneur/article/PIIS1474-4422(14)70171-1/abstract" xr:uid="{57626893-EF50-4495-9576-887C340DD65A}"/>
-    <hyperlink ref="M25" r:id="rId6" display="https://www.nature.com/articles/s41588-018-0090-3" xr:uid="{F3FE97D7-CFCE-41AB-BB44-0A0E4FC7ED7D}"/>
-    <hyperlink ref="M29" r:id="rId7" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
-    <hyperlink ref="K36" r:id="rId8" xr:uid="{9FAE61D6-7540-4DCE-A14A-4889A9873E45}"/>
-    <hyperlink ref="M36" r:id="rId9" xr:uid="{EC0E93F7-4038-4D9E-A36A-04884E8528F6}"/>
-    <hyperlink ref="M47" r:id="rId10" xr:uid="{F9DECD80-32F5-49E8-BE18-E8E80584A3F1}"/>
-    <hyperlink ref="M50" r:id="rId11" xr:uid="{EA927870-61E2-4665-BD68-8660126F247A}"/>
-    <hyperlink ref="M55" r:id="rId12" xr:uid="{75FB4F71-66C3-426A-9D32-C3138233FCC3}"/>
-    <hyperlink ref="M53" r:id="rId13" xr:uid="{BD1B4AFA-07D7-4B37-9BAE-2EA04268DB20}"/>
+    <hyperlink ref="M16" r:id="rId5" display="http://www.thelancet.com/journals/laneur/article/PIIS1474-4422(14)70171-1/abstract" xr:uid="{57626893-EF50-4495-9576-887C340DD65A}"/>
+    <hyperlink ref="M29" r:id="rId6" display="https://www.nature.com/articles/s41588-018-0090-3" xr:uid="{F3FE97D7-CFCE-41AB-BB44-0A0E4FC7ED7D}"/>
+    <hyperlink ref="M33" r:id="rId7" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
+    <hyperlink ref="K40" r:id="rId8" xr:uid="{9FAE61D6-7540-4DCE-A14A-4889A9873E45}"/>
+    <hyperlink ref="M40" r:id="rId9" xr:uid="{EC0E93F7-4038-4D9E-A36A-04884E8528F6}"/>
+    <hyperlink ref="M51" r:id="rId10" xr:uid="{F9DECD80-32F5-49E8-BE18-E8E80584A3F1}"/>
+    <hyperlink ref="M54" r:id="rId11" xr:uid="{EA927870-61E2-4665-BD68-8660126F247A}"/>
+    <hyperlink ref="M59" r:id="rId12" xr:uid="{75FB4F71-66C3-426A-9D32-C3138233FCC3}"/>
+    <hyperlink ref="M57" r:id="rId13" xr:uid="{BD1B4AFA-07D7-4B37-9BAE-2EA04268DB20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
@@ -3691,18 +3901,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3725,14 +3935,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3747,4 +3949,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/misc/LDSC_GWAS_details.xlsx
+++ b/misc/LDSC_GWAS_details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\DOCUME~1\MobaXterm\slash\RemoteFiles\68418_4_19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\DOCUME~1\MobaXterm\slash\RemoteFiles\133126_4_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CB3827-FFB4-44A9-BEA2-68BFE3BE49D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13430FC2-E002-446E-8A3B-E4923EDE9E00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="398">
   <si>
     <t>Disease</t>
   </si>
@@ -1087,13 +1090,154 @@
   </si>
   <si>
     <t>/data/LDScore/GWAS/PD2019_meta5_ex23andMe/PD2019_ex23andMe_hg38.txt.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/FTD2014/FTD_GWAS_bvFTD.txt.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/FTD2014/FTD_GWAS_META.txt.gz</t>
+  </si>
+  <si>
+    <t>Ferrari, 2014</t>
+  </si>
+  <si>
+    <t>01_04_2021</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/24943344/</t>
+  </si>
+  <si>
+    <t>https://rdr.ucl.ac.uk/articles/dataset/IFGC_Summary-statistics_Data-sharing/13042166</t>
+  </si>
+  <si>
+    <t>FTD: behavioural variant</t>
+  </si>
+  <si>
+    <t>FTD: meta-analysis of all subtypes</t>
+  </si>
+  <si>
+    <t>FTD2014.bv</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/FTD2014/FTD2014.bv.sumstats.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/FTD2014/FTD2014.sumstats.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/PSP2019_Progression/PSP2019.progression.sumstats.gz</t>
+  </si>
+  <si>
+    <t>PSP2019.Progression</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/WMH2018/WMH2018.sumstats.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/WMH2018/WMH2018_GWAS.txt.zip</t>
+  </si>
+  <si>
+    <t>WMH2018</t>
+  </si>
+  <si>
+    <t>White matter hyperintensities in brain</t>
+  </si>
+  <si>
+    <t>Traylor, 2015</t>
+  </si>
+  <si>
+    <t>https://cd.hugeamp.org/dinspector.html?dataset=GWAS_ISGC_eu</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC6396967/</t>
+  </si>
+  <si>
+    <t>FTD2014.meta</t>
+  </si>
+  <si>
+    <t>BIP2021</t>
+  </si>
+  <si>
+    <t>Bipolar disorder</t>
+  </si>
+  <si>
+    <t>Mullins, 2021</t>
+  </si>
+  <si>
+    <t>11_06_2021</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/34002096/</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/BIP2021/BIP2021.sumstats.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/BIP2021/pgc-bip2021-all.vcf.tsv.gz</t>
+  </si>
+  <si>
+    <t>MDD2019</t>
+  </si>
+  <si>
+    <t>Howard, 2019</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30718901/</t>
+  </si>
+  <si>
+    <t>https://www.med.unc.edu/pgc/download-results/ \\ https://datashare.ed.ac.uk/handle/10283/3203</t>
+  </si>
+  <si>
+    <t>https://www.med.unc.edu/pgc/download-results/ \\ https://figshare.com/articles/dataset/PGC3_bipolar_disorder_GWAS_summary_statistics/14102594</t>
+  </si>
+  <si>
+    <t>The file PGC_UKB_depression_genome-wide.txt contains genome-wide summary statistics from a meta-analysis of the 33 cohorts of the Psychiatric Genomics Consortium (excluding UK Biobank and 23andMe data) as described in Wray et al. (2018), https://doi.org/10.1038/s41588-018-0090-3 and the broad depression phenotype in the full release of the UK Biobank as described in Howard et al. (2018), https://doi.org/10.1038/s41467-018-03819-3.</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/MDD2019_ex23andMe/MDD2019.sumstats.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/MDD2019_ex23andMe/PGC_UKB_depression_genome-wide.txt.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/ALS2021/ALS_sumstats_ASIA_only.txt.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/ALS2021/ALS_sumstats_EUR_ASIA.txt.gz</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/ALS2021/ALS_sumstats_EUR_only.txt.gz</t>
+  </si>
+  <si>
+    <t>ALS2021.ASIA</t>
+  </si>
+  <si>
+    <t>ALS2021.EURASIA</t>
+  </si>
+  <si>
+    <t>ALS2021.EUR</t>
+  </si>
+  <si>
+    <t>/data/LDScore/GWAS/ALS2021/ALS.EUR.sumstats.gz</t>
+  </si>
+  <si>
+    <t>van Rheenen, 2021</t>
+  </si>
+  <si>
+    <t>For use by RHR and ZC only for Neanderthal paper. Message from Wouter: "I would recommend to use the N_effective as sample size because strata are not perfectly balanced and "total N" overestimates the number of samples that actually contribute to statistical power (in some strata case-control ratio is 1:10, in others 1:4). When using N_effective for LDSC, P (proportion of cases) should be 0.5 to transform to the liability scale, but that won't be needed for LDSC enrichment analyses."</t>
+  </si>
+  <si>
+    <t>19_04_2021</t>
+  </si>
+  <si>
+    <t>https://www.medrxiv.org/content/10.1101/2021.03.12.21253159v1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1118,9 +1262,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1144,7 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1159,22 +1305,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1490,27 +1639,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1952E3-5C06-4A96-9634-E9A29A1BEBD9}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.6640625" customWidth="1"/>
-    <col min="2" max="2" width="75.5546875" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" customWidth="1"/>
-    <col min="10" max="10" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="75.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.77734375" style="4"/>
+    <col min="9" max="9" width="38" style="4" customWidth="1"/>
+    <col min="10" max="10" width="31.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>277</v>
       </c>
@@ -1551,7 +1702,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>69</v>
@@ -1572,17 +1723,14 @@
       <c r="H2" s="4">
         <v>37154</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>24162737</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>211</v>
       </c>
@@ -1595,7 +1743,6 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="3"/>
       <c r="G3" s="4">
         <v>71880</v>
@@ -1603,23 +1750,23 @@
       <c r="H3" s="4">
         <v>383378</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>199</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>30617256</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>212</v>
       </c>
@@ -1644,21 +1791,20 @@
       <c r="H4" s="4">
         <v>383378</v>
       </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>30617256</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>213</v>
       </c>
@@ -1681,21 +1827,20 @@
       <c r="H5" s="4">
         <v>34194</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>30478444</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>78</v>
@@ -1719,16 +1864,14 @@
       <c r="I6" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6">
+      <c r="L6" s="4">
         <v>24256812</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8">
+    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -1754,20 +1897,20 @@
       <c r="I7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>203</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="4">
         <v>27455348</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>215</v>
       </c>
@@ -1790,1496 +1933,1429 @@
       <c r="H8" s="4">
         <v>59804</v>
       </c>
-      <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
         <v>205</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="4">
         <v>29566793</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="4">
+        <v>27205</v>
+      </c>
+      <c r="H11" s="4">
+        <v>110881</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4">
+      <c r="F12" s="3"/>
+      <c r="G12" s="4">
         <v>7016</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H12" s="4">
         <v>14745</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="10" t="s">
+      <c r="J12" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L12" s="14">
         <v>26754954</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10">
+      <c r="F13" s="3"/>
+      <c r="G13" s="4">
         <v>18186</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="10" t="s">
+      <c r="J13" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L13" s="14">
         <v>26754954</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4">
-        <v>339224</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="K11" s="4"/>
-      <c r="L11">
-        <v>25673413</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="28.8">
-      <c r="A12" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G12" s="4">
-        <v>806834</v>
-      </c>
-      <c r="I12" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="L12">
-        <v>30239722</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="28.8">
-      <c r="A13" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G13" s="4">
-        <v>434794</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="L13">
-        <v>30239722</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="28.8">
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>378</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>329</v>
+        <v>373</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="11">
+        <v>41917</v>
+      </c>
+      <c r="H14" s="11">
+        <v>371549</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="14">
+        <v>34002096</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4">
+        <v>339224</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" s="4">
+        <v>25673413</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="4">
+        <v>806834</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L16" s="4">
+        <v>30239722</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="4">
+        <v>434794</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L17" s="4">
+        <v>30239722</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="4">
         <v>374756</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="17" t="s">
+      <c r="I18" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J18" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="L14">
+      <c r="L18" s="4">
         <v>30239722</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.8">
-      <c r="A15" s="3" t="s">
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J19" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>8696</v>
-      </c>
-      <c r="H16" s="5">
-        <v>26157</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16">
-        <v>25087078</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
-        <v>15212</v>
-      </c>
-      <c r="H17" s="4">
-        <v>29677</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L17">
-        <v>30531953</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
-        <v>9671</v>
-      </c>
-      <c r="H18" s="4">
-        <v>29677</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L18">
-        <v>30531953</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
-        <v>3769</v>
-      </c>
-      <c r="H19" s="4">
-        <v>29677</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="L19">
-        <v>30531953</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5">
+        <v>8696</v>
+      </c>
+      <c r="H20" s="5">
+        <v>26157</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="4">
+        <v>25087078</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
+        <v>15212</v>
+      </c>
+      <c r="H21" s="4">
+        <v>29677</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L21" s="4">
+        <v>30531953</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="4">
+        <v>9671</v>
+      </c>
+      <c r="H22" s="4">
+        <v>29677</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" s="4">
+        <v>30531953</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3769</v>
+      </c>
+      <c r="H23" s="4">
+        <v>29677</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="4">
+        <v>30531953</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
         <v>2423</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H24" s="5">
         <v>10645</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J24" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
         <v>2423</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H25" s="5">
         <v>1626</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J25" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3" t="s">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4">
+      <c r="G26" s="4">
         <v>1980</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H26" s="4">
         <v>8265</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I26" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J26" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
-        <v>1989</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23">
-        <v>28642124</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="K24" s="5"/>
-      <c r="L24">
-        <v>30124842</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>269858</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="L25">
-        <v>29942086</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="57.6">
-      <c r="A26" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2591</v>
-      </c>
-      <c r="H26" s="4">
-        <v>4027</v>
-      </c>
-      <c r="I26" t="s">
-        <v>248</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="K26" t="s">
-        <v>135</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>336</v>
+        <v>360</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>174</v>
+        <v>357</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>270</v>
       </c>
       <c r="G27" s="4">
+        <v>1377</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2754</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L27" s="4">
+        <v>24943344</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2154</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4308</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="L28" s="4">
+        <v>24943344</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1989</v>
+      </c>
+      <c r="L29" s="4">
+        <v>28642124</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" s="5"/>
+      <c r="L30" s="4">
+        <v>30124842</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="4">
+        <v>269858</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L31" s="4">
+        <v>29942086</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G32" s="4">
         <v>2591</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H32" s="4">
         <v>4027</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
-        <v>9240</v>
-      </c>
-      <c r="H28" s="4">
-        <v>9519</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L28">
-        <v>22472876</v>
-      </c>
-      <c r="M28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5">
-        <v>59851</v>
-      </c>
-      <c r="H29" s="5">
-        <v>113154</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="L29">
-        <v>29700475</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4">
-        <v>14498</v>
-      </c>
-      <c r="H30" s="4">
-        <v>24091</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30">
-        <v>24076602</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>2688</v>
-      </c>
-      <c r="H31" s="4">
-        <v>7037</v>
-      </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L31">
-        <v>28761083</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4">
-        <v>20184</v>
-      </c>
-      <c r="H32" s="4">
-        <v>397324</v>
-      </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="M32" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>262</v>
+        <v>338</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>107</v>
+        <v>336</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>108</v>
+        <v>337</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>270</v>
       </c>
       <c r="G33" s="4">
-        <v>5333</v>
+        <v>2591</v>
       </c>
       <c r="H33" s="4">
-        <v>12019</v>
+        <v>4027</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="K33" s="4"/>
-      <c r="L33">
-        <v>21292315</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>339</v>
+      </c>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="4">
+        <v>9240</v>
+      </c>
+      <c r="H34" s="4">
+        <v>9519</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" s="4">
+        <v>22472876</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
+        <v>59851</v>
+      </c>
+      <c r="H35" s="5">
+        <v>113154</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" s="4">
+        <v>29700475</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="18">
+        <v>170756</v>
+      </c>
+      <c r="H36" s="18">
+        <v>329443</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="L36" s="4">
+        <v>30718901</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="4">
+        <v>14498</v>
+      </c>
+      <c r="H37" s="4">
+        <v>24091</v>
+      </c>
+      <c r="L37" s="4">
+        <v>24076602</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="4">
+        <v>2688</v>
+      </c>
+      <c r="H38" s="4">
+        <v>7037</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L38" s="4">
+        <v>28761083</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G34" s="4">
-        <v>13708</v>
-      </c>
-      <c r="H34" s="4">
-        <v>95282</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34">
-        <v>25064009</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G35">
-        <v>25987</v>
-      </c>
-      <c r="H35">
-        <v>403177</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L35">
-        <v>31701892</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G36" s="4">
-        <v>17415</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="L36">
-        <v>30957308</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="28.8">
-      <c r="A37" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G37" s="4">
-        <v>17415</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="L37">
-        <v>30957308</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="28.8">
-      <c r="A38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="5">
-        <v>449037</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28.8">
-      <c r="A39" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H39" s="5">
-        <v>449037</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="J39" s="4"/>
-      <c r="K39" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L39">
-        <v>31701892</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="28.8">
+      <c r="D39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="4">
+        <v>20184</v>
+      </c>
+      <c r="H39" s="4">
+        <v>397324</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>349</v>
+        <v>262</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>133</v>
+        <v>108</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H40" s="5">
-        <v>449056</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="L40">
-        <v>31701892</v>
-      </c>
-      <c r="M40" s="14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="28.8">
+      <c r="G40" s="4">
+        <v>5333</v>
+      </c>
+      <c r="H40" s="4">
+        <v>12019</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="L40" s="4">
+        <v>21292315</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>164</v>
+        <v>109</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="5">
-        <v>449056</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="L41">
-        <v>31701892</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>270</v>
+      </c>
+      <c r="G41" s="4">
+        <v>13708</v>
+      </c>
+      <c r="H41" s="4">
+        <v>95282</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" s="4">
+        <v>25064009</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4" t="s">
-        <v>129</v>
+        <v>318</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G42" s="5">
-        <v>2448</v>
-      </c>
-      <c r="H42" s="5">
-        <v>571430</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="K42" s="6"/>
-      <c r="L42">
+      <c r="G42" s="4">
+        <v>25987</v>
+      </c>
+      <c r="H42" s="4">
+        <v>403177</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L42" s="4">
         <v>31701892</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>275</v>
+        <v>341</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>145</v>
+        <v>162</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>271</v>
       </c>
       <c r="G43" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H43" s="4"/>
+        <v>17415</v>
+      </c>
       <c r="I43" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J43" s="4"/>
+        <v>343</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="K43" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L43">
-        <v>31505070</v>
-      </c>
-      <c r="M43" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>272</v>
+      </c>
+      <c r="L43" s="4">
+        <v>30957308</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>276</v>
+        <v>342</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>149</v>
+        <v>111</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>136</v>
+        <v>51</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G44" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J44" s="4"/>
+        <v>17415</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>268</v>
+      </c>
       <c r="K44" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L44">
-        <v>31505070</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>272</v>
+      </c>
+      <c r="L44" s="4">
+        <v>30957308</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>278</v>
+        <v>113</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G45" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L45">
-        <v>31505070</v>
-      </c>
-      <c r="M45" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>270</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" s="5">
+        <v>449037</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>136</v>
+        <v>114</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G46" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L46">
-        <v>31505070</v>
-      </c>
-      <c r="M46" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>270</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" s="5">
+        <v>449037</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L46" s="4">
+        <v>31701892</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>280</v>
+        <v>349</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>136</v>
+        <v>169</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G47" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L47">
-        <v>31505070</v>
-      </c>
-      <c r="M47" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>270</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="5">
+        <v>449056</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="L47" s="4">
+        <v>31701892</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>136</v>
+        <v>163</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G48" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L48">
-        <v>31505070</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="G48" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" s="5">
+        <v>449056</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="L48" s="4">
+        <v>31701892</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>155</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C49" s="3"/>
       <c r="D49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G49" s="4">
-        <v>4093</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="L49">
-        <v>31505070</v>
-      </c>
-      <c r="M49" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>270</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2448</v>
+      </c>
+      <c r="H49" s="5">
+        <v>571430</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="K49" s="6"/>
+      <c r="L49" s="4">
+        <v>31701892</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>136</v>
@@ -3290,379 +3366,652 @@
       <c r="G50" s="4">
         <v>4093</v>
       </c>
-      <c r="H50" s="4"/>
       <c r="I50" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="4">
         <v>31505070</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G51" s="4">
+        <v>4093</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L51" s="4">
+        <v>31505070</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G52" s="4">
+        <v>4093</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L52" s="4">
+        <v>31505070</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G53" s="4">
+        <v>4093</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L53" s="4">
+        <v>31505070</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G54" s="4">
+        <v>4093</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L54" s="4">
+        <v>31505070</v>
+      </c>
+      <c r="M54" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G55" s="4">
+        <v>4093</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L55" s="4">
+        <v>31505070</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G56" s="4">
+        <v>4093</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L56" s="4">
+        <v>31505070</v>
+      </c>
+      <c r="M56" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G57" s="4">
+        <v>4093</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="L57" s="4">
+        <v>31505070</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C58" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D58" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L51">
-        <v>30066433</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G52" s="15">
-        <v>1002</v>
-      </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="L52">
-        <v>33341150</v>
-      </c>
-      <c r="M52" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G53" s="4">
-        <v>2843</v>
-      </c>
-      <c r="H53" s="4">
-        <v>139363</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="M53" s="5"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G54" s="4">
-        <v>6768</v>
-      </c>
-      <c r="H54" s="4">
-        <v>8806</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54">
-        <v>20453842</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="K55" s="5"/>
-      <c r="L55">
-        <v>24390342</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G56" s="5">
-        <v>9394</v>
-      </c>
-      <c r="H56" s="5">
-        <v>12462</v>
-      </c>
-      <c r="I56" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="J56" s="5"/>
-      <c r="K56" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L56">
-        <v>21926974</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="G57" s="5">
-        <v>14395</v>
-      </c>
-      <c r="H57" s="5">
-        <v>18705</v>
-      </c>
-      <c r="I57" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J57" s="5"/>
-      <c r="K57" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L57">
-        <v>23974872</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G58" s="4">
-        <v>40675</v>
-      </c>
-      <c r="H58" s="4">
-        <v>64643</v>
-      </c>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L58">
-        <v>29483656</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="I58" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L58" s="4">
+        <v>30066433</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>125</v>
+        <v>291</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>56</v>
+        <v>362</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>59</v>
+        <v>292</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>60</v>
+        <v>297</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G59" s="4">
-        <v>33640</v>
-      </c>
-      <c r="H59" s="4">
-        <v>43456</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="J59" s="4"/>
-      <c r="K59" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="L59">
-        <v>25056061</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="3"/>
+      <c r="G59" s="6">
+        <v>1002</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="L59" s="4">
+        <v>33341150</v>
+      </c>
+      <c r="M59" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>348</v>
+      </c>
       <c r="B60" s="3" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>127</v>
+        <v>176</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="4">
+        <v>2843</v>
+      </c>
+      <c r="H60" s="4">
+        <v>139363</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G61" s="4">
+        <v>6768</v>
+      </c>
+      <c r="H61" s="4">
+        <v>8806</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="L61" s="4">
+        <v>20453842</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="4">
+        <v>24390342</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G63" s="5">
+        <v>9394</v>
+      </c>
+      <c r="H63" s="5">
+        <v>12462</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L63" s="4">
+        <v>21926974</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G64" s="5">
+        <v>14395</v>
+      </c>
+      <c r="H64" s="5">
+        <v>18705</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="J64" s="5"/>
+      <c r="K64" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L64" s="4">
+        <v>23974872</v>
+      </c>
+      <c r="M64" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G65" s="4">
+        <v>40675</v>
+      </c>
+      <c r="H65" s="4">
+        <v>64643</v>
+      </c>
+      <c r="K65" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L65" s="4">
+        <v>29483656</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G66" s="4">
+        <v>33640</v>
+      </c>
+      <c r="H66" s="4">
+        <v>43456</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="L66" s="4">
+        <v>25056061</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G67" s="5">
         <v>224459</v>
       </c>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5" t="s">
+      <c r="H67" s="5"/>
+      <c r="I67" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="M60" s="5" t="s">
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="M67" s="5" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G68" s="5">
+        <v>11226</v>
+      </c>
+      <c r="J68" s="8">
+        <v>44293</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="L68" s="7">
+        <v>30659137</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3672,26 +4021,37 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1" xr:uid="{BBB0C350-518D-4FDE-8D26-F9AC037A2E22}"/>
-    <hyperlink ref="M32" r:id="rId2" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
-    <hyperlink ref="M60" r:id="rId3" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
-    <hyperlink ref="M10" r:id="rId4" xr:uid="{3D6F428E-43E3-4182-BD13-393C33C31665}"/>
-    <hyperlink ref="M16" r:id="rId5" display="http://www.thelancet.com/journals/laneur/article/PIIS1474-4422(14)70171-1/abstract" xr:uid="{57626893-EF50-4495-9576-887C340DD65A}"/>
-    <hyperlink ref="M29" r:id="rId6" display="https://www.nature.com/articles/s41588-018-0090-3" xr:uid="{F3FE97D7-CFCE-41AB-BB44-0A0E4FC7ED7D}"/>
-    <hyperlink ref="M33" r:id="rId7" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
-    <hyperlink ref="K40" r:id="rId8" xr:uid="{9FAE61D6-7540-4DCE-A14A-4889A9873E45}"/>
-    <hyperlink ref="M40" r:id="rId9" xr:uid="{EC0E93F7-4038-4D9E-A36A-04884E8528F6}"/>
-    <hyperlink ref="M51" r:id="rId10" xr:uid="{F9DECD80-32F5-49E8-BE18-E8E80584A3F1}"/>
-    <hyperlink ref="M54" r:id="rId11" xr:uid="{EA927870-61E2-4665-BD68-8660126F247A}"/>
-    <hyperlink ref="M59" r:id="rId12" xr:uid="{75FB4F71-66C3-426A-9D32-C3138233FCC3}"/>
-    <hyperlink ref="M57" r:id="rId13" xr:uid="{BD1B4AFA-07D7-4B37-9BAE-2EA04268DB20}"/>
+    <hyperlink ref="M12" r:id="rId1" xr:uid="{BBB0C350-518D-4FDE-8D26-F9AC037A2E22}"/>
+    <hyperlink ref="M39" r:id="rId2" xr:uid="{E47398A0-0FF4-40C7-B28C-491AA29780C0}"/>
+    <hyperlink ref="M67" r:id="rId3" xr:uid="{DEFC0B3C-480A-4C1B-9000-620B97826FD6}"/>
+    <hyperlink ref="M13" r:id="rId4" xr:uid="{3D6F428E-43E3-4182-BD13-393C33C31665}"/>
+    <hyperlink ref="M20" r:id="rId5" display="http://www.thelancet.com/journals/laneur/article/PIIS1474-4422(14)70171-1/abstract" xr:uid="{57626893-EF50-4495-9576-887C340DD65A}"/>
+    <hyperlink ref="M35" r:id="rId6" display="https://www.nature.com/articles/s41588-018-0090-3" xr:uid="{F3FE97D7-CFCE-41AB-BB44-0A0E4FC7ED7D}"/>
+    <hyperlink ref="M40" r:id="rId7" xr:uid="{31AE6B41-505E-47FD-9542-6B69C18BB495}"/>
+    <hyperlink ref="K47" r:id="rId8" xr:uid="{9FAE61D6-7540-4DCE-A14A-4889A9873E45}"/>
+    <hyperlink ref="M47" r:id="rId9" xr:uid="{EC0E93F7-4038-4D9E-A36A-04884E8528F6}"/>
+    <hyperlink ref="M58" r:id="rId10" xr:uid="{F9DECD80-32F5-49E8-BE18-E8E80584A3F1}"/>
+    <hyperlink ref="M61" r:id="rId11" xr:uid="{EA927870-61E2-4665-BD68-8660126F247A}"/>
+    <hyperlink ref="M66" r:id="rId12" xr:uid="{75FB4F71-66C3-426A-9D32-C3138233FCC3}"/>
+    <hyperlink ref="M64" r:id="rId13" xr:uid="{BD1B4AFA-07D7-4B37-9BAE-2EA04268DB20}"/>
+    <hyperlink ref="L68" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pubmed/30659137" xr:uid="{7B3F0234-C593-3046-BAF5-538465E2A4C1}"/>
+    <hyperlink ref="M36" r:id="rId15" xr:uid="{1726C614-4FA3-4164-B4EE-0C7E13DCF28B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009E9767D5BA6063479A4C886B0F37A834" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7df94d56b854e2bc391fe609c51130c0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c8482f88-69f1-4d9b-a87b-44246c8613e3" xmlns:ns4="777ca2a7-d433-453a-9f68-8d248f0b672b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99f9bd102c2ed36076a1ee33778dae5d" ns3:_="" ns4:_="">
     <xsd:import namespace="c8482f88-69f1-4d9b-a87b-44246c8613e3"/>
@@ -3900,22 +4260,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A23476E9-018C-4B31-8204-6617531A6FD8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3934,7 +4293,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C63FB67-A49C-40F3-B6CA-0BD97994B287}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3949,12 +4308,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20B3C7E9-2250-46C5-964D-F58B4EE82E42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/misc/LDSC_GWAS_details.xlsx
+++ b/misc/LDSC_GWAS_details.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\DOCUME~1\MobaXterm\slash\RemoteFiles\133126_4_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhrey\DOCUME~1\MobaXterm\slash\RemoteFiles\525998_5_32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13430FC2-E002-446E-8A3B-E4923EDE9E00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACAF80A-DACB-49BF-92BC-85657D29E9D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FBD60CA-1B47-4B67-8CE0-01BBBFACD2C8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="397">
   <si>
     <t>Disease</t>
   </si>
@@ -831,15 +831,6 @@
     <t>01_11_2017</t>
   </si>
   <si>
-    <t xml:space="preserve">Original file from Mike Nalls. Sent by e-mail to Mina, Seb and Regina. E-mail subject: PD GWAS data 2011. </t>
-  </si>
-  <si>
-    <t>/data/LDScore/GWAS/PD2014/PD2014.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processed LDSC file sent by Sarah Gagliano on 01/11/2017. </t>
-  </si>
-  <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/25064009/</t>
   </si>
   <si>
@@ -1231,6 +1222,12 @@
   </si>
   <si>
     <t>https://www.medrxiv.org/content/10.1101/2021.03.12.21253159v1</t>
+  </si>
+  <si>
+    <t>Original file from Mike Nalls. Sent by e-mail to Mina, Seb and Regina. E-mail subject: PD GWAS data 2011. Processed for LDSC by first converting from GRCh36 to GRCh37.</t>
+  </si>
+  <si>
+    <t>DO NOT USE (under suspicion that this may be an older GWAS version). Processed LDSC file sent by Sarah Gagliano on 01/11/2017.</t>
   </si>
 </sst>
 </file>
@@ -1641,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1952E3-5C06-4A96-9634-E9A29A1BEBD9}">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1663,7 +1660,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>222</v>
@@ -1678,7 +1675,7 @@
         <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>66</v>
@@ -1783,7 +1780,7 @@
         <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G4" s="4">
         <v>71880</v>
@@ -1948,76 +1945,76 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G11" s="4">
         <v>27205</v>
@@ -2026,13 +2023,13 @@
         <v>110881</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -2106,22 +2103,22 @@
     </row>
     <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G14" s="11">
         <v>41917</v>
@@ -2130,16 +2127,16 @@
         <v>371549</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L14" s="14">
         <v>34002096</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -2174,110 +2171,110 @@
     </row>
     <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G16" s="4">
         <v>806834</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L16" s="4">
         <v>30239722</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G17" s="4">
         <v>434794</v>
       </c>
       <c r="I17" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>333</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L17" s="4">
         <v>30239722</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G18" s="4">
         <v>374756</v>
       </c>
       <c r="I18" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="L18" s="4">
         <v>30239722</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
@@ -2487,7 +2484,7 @@
         <v>238</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>245</v>
@@ -2539,22 +2536,22 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G27" s="4">
         <v>1377</v>
@@ -2563,36 +2560,36 @@
         <v>2754</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L27" s="4">
         <v>24943344</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G28" s="4">
         <v>2154</v>
@@ -2601,16 +2598,16 @@
         <v>4308</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L28" s="4">
         <v>24943344</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2720,7 +2717,7 @@
         <v>174</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G32" s="4">
         <v>2591</v>
@@ -2743,13 +2740,13 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>173</v>
@@ -2758,7 +2755,7 @@
         <v>174</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G33" s="4">
         <v>2591</v>
@@ -2767,7 +2764,7 @@
         <v>4027</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J33" s="8"/>
     </row>
@@ -2847,22 +2844,22 @@
     </row>
     <row r="36" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G36" s="18">
         <v>170756</v>
@@ -2871,19 +2868,19 @@
         <v>329443</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L36" s="4">
         <v>30718901</v>
       </c>
       <c r="M36" s="15" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -2952,7 +2949,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>83</v>
@@ -2993,7 +2990,7 @@
         <v>46</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G40" s="4">
         <v>5333</v>
@@ -3002,7 +2999,7 @@
         <v>12019</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>264</v>
+        <v>395</v>
       </c>
       <c r="J40" s="9" t="s">
         <v>263</v>
@@ -3015,9 +3012,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>265</v>
-      </c>
+      <c r="A41" s="3"/>
       <c r="B41" s="3" t="s">
         <v>109</v>
       </c>
@@ -3031,7 +3026,7 @@
         <v>45</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G41" s="4">
         <v>13708</v>
@@ -3040,33 +3035,33 @@
         <v>95282</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>266</v>
+        <v>396</v>
       </c>
       <c r="L41" s="4">
         <v>25064009</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="E42" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>322</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G42" s="4">
         <v>25987</v>
@@ -3075,7 +3070,7 @@
         <v>403177</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>209</v>
@@ -3089,7 +3084,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>162</v>
@@ -3104,19 +3099,19 @@
         <v>51</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G43" s="4">
         <v>17415</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L43" s="4">
         <v>30957308</v>
@@ -3127,7 +3122,7 @@
     </row>
     <row r="44" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>111</v>
@@ -3142,16 +3137,16 @@
         <v>51</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G44" s="4">
         <v>17415</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L44" s="4">
         <v>30957308</v>
@@ -3177,7 +3172,7 @@
         <v>49</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>134</v>
@@ -3196,7 +3191,7 @@
     </row>
     <row r="46" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>113</v>
@@ -3211,7 +3206,7 @@
         <v>49</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>134</v>
@@ -3220,7 +3215,7 @@
         <v>449037</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>209</v>
@@ -3234,7 +3229,7 @@
     </row>
     <row r="47" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>169</v>
@@ -3249,7 +3244,7 @@
         <v>133</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>134</v>
@@ -3258,11 +3253,11 @@
         <v>449056</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L47" s="4">
         <v>31701892</v>
@@ -3273,7 +3268,7 @@
     </row>
     <row r="48" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>164</v>
@@ -3288,7 +3283,7 @@
         <v>133</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>134</v>
@@ -3297,11 +3292,11 @@
         <v>449056</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="L48" s="4">
         <v>31701892</v>
@@ -3312,7 +3307,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="4" t="s">
@@ -3322,7 +3317,7 @@
         <v>49</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G49" s="5">
         <v>2448</v>
@@ -3331,10 +3326,10 @@
         <v>571430</v>
       </c>
       <c r="I49" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="J49" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="4">
@@ -3346,7 +3341,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>146</v>
@@ -3361,27 +3356,27 @@
         <v>136</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G50" s="4">
         <v>4093</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L50" s="4">
         <v>31505070</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>150</v>
@@ -3396,27 +3391,27 @@
         <v>136</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G51" s="4">
         <v>4093</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L51" s="4">
         <v>31505070</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>154</v>
@@ -3431,27 +3426,27 @@
         <v>136</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G52" s="4">
         <v>4093</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L52" s="4">
         <v>31505070</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>158</v>
@@ -3466,27 +3461,27 @@
         <v>136</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G53" s="4">
         <v>4093</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L53" s="4">
         <v>31505070</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>148</v>
@@ -3501,27 +3496,27 @@
         <v>136</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G54" s="4">
         <v>4093</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L54" s="4">
         <v>31505070</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>151</v>
@@ -3536,27 +3531,27 @@
         <v>136</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G55" s="4">
         <v>4093</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L55" s="4">
         <v>31505070</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>156</v>
@@ -3571,27 +3566,27 @@
         <v>136</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G56" s="4">
         <v>4093</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L56" s="4">
         <v>31505070</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>160</v>
@@ -3606,45 +3601,45 @@
         <v>136</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G57" s="4">
         <v>4093</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L57" s="4">
         <v>31505070</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D58" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>209</v>
@@ -3653,36 +3648,36 @@
         <v>30066433</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G59" s="6">
         <v>1002</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>209</v>
@@ -3691,15 +3686,15 @@
         <v>33341150</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>176</v>
@@ -3711,7 +3706,7 @@
         <v>178</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G60" s="4">
         <v>2843</v>
@@ -3720,7 +3715,7 @@
         <v>139363</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
@@ -3743,7 +3738,7 @@
         <v>53</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G61" s="4">
         <v>6768</v>
@@ -3758,12 +3753,12 @@
         <v>20453842</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>117</v>
@@ -3778,7 +3773,7 @@
         <v>55</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>130</v>
@@ -3788,19 +3783,19 @@
       </c>
       <c r="I62" s="5"/>
       <c r="J62" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K62" s="5"/>
       <c r="L62" s="4">
         <v>24390342</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>119</v>
@@ -3815,7 +3810,7 @@
         <v>57</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G63" s="5">
         <v>9394</v>
@@ -3824,7 +3819,7 @@
         <v>12462</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="14" t="s">
@@ -3834,12 +3829,12 @@
         <v>21926974</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>121</v>
@@ -3854,7 +3849,7 @@
         <v>58</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G64" s="5">
         <v>14395</v>
@@ -3863,7 +3858,7 @@
         <v>18705</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="14" t="s">
@@ -3873,12 +3868,12 @@
         <v>23974872</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>123</v>
@@ -3893,7 +3888,7 @@
         <v>61</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G65" s="4">
         <v>40675</v>
@@ -3908,7 +3903,7 @@
         <v>29483656</v>
       </c>
       <c r="M65" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -3928,7 +3923,7 @@
         <v>60</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G66" s="4">
         <v>33640</v>
@@ -3937,7 +3932,7 @@
         <v>43456</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K66" s="14" t="s">
         <v>251</v>
@@ -3946,7 +3941,7 @@
         <v>25056061</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -3964,7 +3959,7 @@
         <v>63</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G67" s="5">
         <v>224459</v>
@@ -3981,22 +3976,22 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E68" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G68" s="5">
         <v>11226</v>
@@ -4005,13 +4000,13 @@
         <v>44293</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L68" s="7">
         <v>30659137</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
